--- a/resources/allele_definitions/2020_12_08_v0_6_0_cftr_dpyd_edited/table/G6PD.xlsx
+++ b/resources/allele_definitions/2020_12_08_v0_6_0_cftr_dpyd_edited/table/G6PD.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10711"/>
   <workbookPr date1904="1" showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csukrith/801989/pharmvip/pharmvip/data/allele_definition_tables/02_20_2020/excel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/csukrith/Desktop/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55DE41A8-7D54-6340-9739-5393EFDA8007}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F710C7BD-0345-E04C-B5C2-78BC6D86795F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="1060" windowWidth="25620" windowHeight="16440" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="500" windowWidth="25620" windowHeight="16400" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="map" sheetId="1" r:id="rId1"/>
@@ -501,9 +501,6 @@
     <t>Sumare</t>
   </si>
   <si>
-    <t>Telti/Kobe</t>
-  </si>
-  <si>
     <t>Santiago de Cuba, Morioka</t>
   </si>
   <si>
@@ -2952,6 +2949,9 @@
   </si>
   <si>
     <t>g.154532753_154532770delGGCCTTGCGCTCGTTCAG</t>
+  </si>
+  <si>
+    <t>Telti, Kobe</t>
   </si>
 </sst>
 </file>
@@ -3806,9 +3806,9 @@
   <dimension ref="A1:FL202"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="8" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="8" topLeftCell="A149" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="AO1" sqref="AO1"/>
-      <selection pane="bottomLeft" activeCell="B14" sqref="B14"/>
+      <selection pane="bottomLeft" activeCell="A169" sqref="A169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -3947,7 +3947,7 @@
   <sheetData>
     <row r="1" spans="1:168" ht="17" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B1" s="2">
         <v>41907</v>
@@ -4122,2234 +4122,2234 @@
     <row r="2" spans="1:168" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="9" t="s">
+        <v>193</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>665</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>672</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="G2" s="6" t="s">
+        <v>614</v>
+      </c>
+      <c r="H2" s="20" t="s">
+        <v>915</v>
+      </c>
+      <c r="I2" s="6" t="s">
+        <v>678</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>207</v>
+      </c>
+      <c r="K2" s="6" t="s">
         <v>194</v>
       </c>
-      <c r="C2" s="10" t="s">
-        <v>666</v>
-      </c>
-      <c r="D2" s="6" t="s">
-        <v>239</v>
-      </c>
-      <c r="E2" s="6" t="s">
-        <v>673</v>
-      </c>
-      <c r="F2" s="6" t="s">
+      <c r="L2" s="6" t="s">
+        <v>211</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N2" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="G2" s="6" t="s">
-        <v>615</v>
-      </c>
-      <c r="H2" s="20" t="s">
-        <v>916</v>
-      </c>
-      <c r="I2" s="6" t="s">
-        <v>679</v>
-      </c>
-      <c r="J2" s="6" t="s">
-        <v>208</v>
-      </c>
-      <c r="K2" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="L2" s="6" t="s">
-        <v>212</v>
-      </c>
-      <c r="M2" s="6" t="s">
-        <v>213</v>
-      </c>
-      <c r="N2" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="O2" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="P2" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="Q2" s="6" t="s">
         <v>219</v>
       </c>
-      <c r="Q2" s="6" t="s">
-        <v>220</v>
-      </c>
       <c r="R2" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="S2" s="20" t="s">
+        <v>656</v>
+      </c>
+      <c r="T2" s="6" t="s">
+        <v>648</v>
+      </c>
+      <c r="U2" s="6" t="s">
+        <v>257</v>
+      </c>
+      <c r="V2" s="6" t="s">
+        <v>198</v>
+      </c>
+      <c r="W2" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="X2" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="Y2" s="6" t="s">
+        <v>263</v>
+      </c>
+      <c r="Z2" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="AA2" s="6" t="s">
+        <v>233</v>
+      </c>
+      <c r="AB2" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="AC2" s="20" t="s">
         <v>657</v>
       </c>
-      <c r="T2" s="6" t="s">
-        <v>649</v>
-      </c>
-      <c r="U2" s="6" t="s">
-        <v>258</v>
-      </c>
-      <c r="V2" s="6" t="s">
-        <v>199</v>
-      </c>
-      <c r="W2" s="6" t="s">
-        <v>261</v>
-      </c>
-      <c r="X2" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="Y2" s="6" t="s">
-        <v>264</v>
-      </c>
-      <c r="Z2" s="6" t="s">
-        <v>230</v>
-      </c>
-      <c r="AA2" s="6" t="s">
-        <v>234</v>
-      </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
+        <v>682</v>
+      </c>
+      <c r="AE2" s="6" t="s">
+        <v>624</v>
+      </c>
+      <c r="AF2" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="AC2" s="20" t="s">
+      <c r="AG2" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="AH2" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="AI2" s="6" t="s">
+        <v>632</v>
+      </c>
+      <c r="AJ2" s="6" t="s">
+        <v>196</v>
+      </c>
+      <c r="AK2" s="6" t="s">
+        <v>635</v>
+      </c>
+      <c r="AL2" s="6" t="s">
+        <v>652</v>
+      </c>
+      <c r="AM2" s="6" t="s">
+        <v>638</v>
+      </c>
+      <c r="AN2" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="AO2" s="6" t="s">
+        <v>688</v>
+      </c>
+      <c r="AP2" s="6" t="s">
+        <v>270</v>
+      </c>
+      <c r="AQ2" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="AR2" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="AS2" s="6" t="s">
+        <v>641</v>
+      </c>
+      <c r="AT2" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="AU2" s="6" t="s">
+        <v>283</v>
+      </c>
+      <c r="AV2" s="6" t="s">
+        <v>693</v>
+      </c>
+      <c r="AW2" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="AX2" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="AY2" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="AZ2" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="BA2" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="BB2" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="BC2" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="BD2" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="BE2" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="BF2" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="BG2" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="BH2" s="6" t="s">
+        <v>628</v>
+      </c>
+      <c r="BI2" s="24" t="s">
+        <v>935</v>
+      </c>
+      <c r="BJ2" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="BK2" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="BL2" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="BM2" s="6" t="s">
+        <v>698</v>
+      </c>
+      <c r="BN2" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="BO2" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="BP2" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="BQ2" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="BR2" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="BS2" s="20" t="s">
         <v>658</v>
       </c>
-      <c r="AD2" s="6" t="s">
-        <v>683</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>625</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>238</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="AH2" s="6" t="s">
-        <v>266</v>
-      </c>
-      <c r="AI2" s="6" t="s">
-        <v>633</v>
-      </c>
-      <c r="AJ2" s="6" t="s">
-        <v>197</v>
-      </c>
-      <c r="AK2" s="6" t="s">
-        <v>636</v>
-      </c>
-      <c r="AL2" s="6" t="s">
-        <v>653</v>
-      </c>
-      <c r="AM2" s="6" t="s">
-        <v>639</v>
-      </c>
-      <c r="AN2" s="6" t="s">
-        <v>268</v>
-      </c>
-      <c r="AO2" s="6" t="s">
-        <v>689</v>
-      </c>
-      <c r="AP2" s="6" t="s">
-        <v>271</v>
-      </c>
-      <c r="AQ2" s="6" t="s">
-        <v>274</v>
-      </c>
-      <c r="AR2" s="6" t="s">
-        <v>277</v>
-      </c>
-      <c r="AS2" s="6" t="s">
-        <v>642</v>
-      </c>
-      <c r="AT2" s="6" t="s">
-        <v>280</v>
-      </c>
-      <c r="AU2" s="6" t="s">
-        <v>284</v>
-      </c>
-      <c r="AV2" s="6" t="s">
-        <v>694</v>
-      </c>
-      <c r="AW2" s="6" t="s">
-        <v>288</v>
-      </c>
-      <c r="AX2" s="6" t="s">
-        <v>292</v>
-      </c>
-      <c r="AY2" s="6" t="s">
-        <v>295</v>
-      </c>
-      <c r="AZ2" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="BA2" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="BB2" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="BC2" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="BD2" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="BE2" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="BF2" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="BG2" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="BH2" s="6" t="s">
-        <v>629</v>
-      </c>
-      <c r="BI2" s="24" t="s">
+      <c r="BT2" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="BU2" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="BV2" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="BW2" s="20" t="s">
+        <v>659</v>
+      </c>
+      <c r="BX2" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="BY2" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="BZ2" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="CA2" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="CB2" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="CC2" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="CD2" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="CE2" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="CF2" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="CG2" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="CH2" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="CI2" s="6" t="s">
+        <v>382</v>
+      </c>
+      <c r="CJ2" s="6" t="s">
+        <v>703</v>
+      </c>
+      <c r="CK2" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="CL2" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="CM2" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="CN2" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="CO2" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="CP2" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="CQ2" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="CR2" s="6" t="s">
+        <v>408</v>
+      </c>
+      <c r="CS2" s="6" t="s">
+        <v>411</v>
+      </c>
+      <c r="CT2" s="24" t="s">
+        <v>964</v>
+      </c>
+      <c r="CU2" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="CV2" s="20" t="s">
+        <v>660</v>
+      </c>
+      <c r="CW2" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="CX2" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="CY2" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="CZ2" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="DA2" s="6" t="s">
+        <v>620</v>
+      </c>
+      <c r="DB2" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="DC2" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="DD2" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="DE2" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="DF2" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="DG2" s="24" t="s">
         <v>936</v>
       </c>
-      <c r="BJ2" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="BK2" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="BL2" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="BM2" s="6" t="s">
-        <v>699</v>
-      </c>
-      <c r="BN2" s="6" t="s">
-        <v>334</v>
-      </c>
-      <c r="BO2" s="6" t="s">
-        <v>338</v>
-      </c>
-      <c r="BP2" s="6" t="s">
-        <v>342</v>
-      </c>
-      <c r="BQ2" s="6" t="s">
-        <v>346</v>
-      </c>
-      <c r="BR2" s="6" t="s">
-        <v>349</v>
-      </c>
-      <c r="BS2" s="20" t="s">
-        <v>659</v>
-      </c>
-      <c r="BT2" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="BU2" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="BV2" s="6" t="s">
-        <v>359</v>
-      </c>
-      <c r="BW2" s="20" t="s">
-        <v>660</v>
-      </c>
-      <c r="BX2" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="BY2" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="BZ2" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="CA2" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="CB2" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="CC2" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="CD2" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="CE2" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="CF2" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="CG2" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="CH2" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="CI2" s="6" t="s">
-        <v>383</v>
-      </c>
-      <c r="CJ2" s="6" t="s">
-        <v>704</v>
-      </c>
-      <c r="CK2" s="6" t="s">
-        <v>386</v>
-      </c>
-      <c r="CL2" s="6" t="s">
-        <v>389</v>
-      </c>
-      <c r="CM2" s="6" t="s">
-        <v>392</v>
-      </c>
-      <c r="CN2" s="6" t="s">
-        <v>396</v>
-      </c>
-      <c r="CO2" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="CP2" s="6" t="s">
-        <v>403</v>
-      </c>
-      <c r="CQ2" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="CR2" s="6" t="s">
-        <v>409</v>
-      </c>
-      <c r="CS2" s="6" t="s">
-        <v>412</v>
-      </c>
-      <c r="CT2" s="24" t="s">
-        <v>965</v>
-      </c>
-      <c r="CU2" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="CV2" s="20" t="s">
-        <v>661</v>
-      </c>
-      <c r="CW2" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="CX2" s="6" t="s">
-        <v>420</v>
-      </c>
-      <c r="CY2" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="CZ2" s="6" t="s">
-        <v>426</v>
-      </c>
-      <c r="DA2" s="6" t="s">
-        <v>621</v>
-      </c>
-      <c r="DB2" s="6" t="s">
-        <v>430</v>
-      </c>
-      <c r="DC2" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="DD2" s="6" t="s">
-        <v>437</v>
-      </c>
-      <c r="DE2" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="DF2" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="DG2" s="24" t="s">
-        <v>937</v>
-      </c>
       <c r="DH2" s="6" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="DI2" s="6" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="DJ2" s="6" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="DK2" s="6" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="DL2" s="6" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="DM2" s="6" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="DN2" s="6" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="DO2" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="DP2" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="DQ2" s="6" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="DR2" s="6" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="DS2" s="6" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="DT2" s="6" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="DU2" s="6" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="DV2" s="6" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="DW2" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="DX2" s="6" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="DY2" s="6" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="DZ2" s="6" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="EA2" s="6" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="EB2" s="6" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="EC2" s="6" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="ED2" s="6" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="EE2" s="6" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="EF2" s="6" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="EG2" s="6" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="EH2" s="6" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="EI2" s="6" t="s">
+        <v>538</v>
+      </c>
+      <c r="EJ2" s="6" t="s">
+        <v>617</v>
+      </c>
+      <c r="EK2" s="6" t="s">
+        <v>610</v>
+      </c>
+      <c r="EL2" s="6" t="s">
         <v>539</v>
       </c>
-      <c r="EJ2" s="6" t="s">
-        <v>618</v>
-      </c>
-      <c r="EK2" s="6" t="s">
-        <v>611</v>
-      </c>
-      <c r="EL2" s="6" t="s">
-        <v>540</v>
-      </c>
       <c r="EM2" s="6" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="EN2" s="6" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="EO2" s="6" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="EP2" s="6" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="EQ2" s="6" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="ER2" s="6" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="ES2" s="6" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="ET2" s="6" t="s">
+        <v>563</v>
+      </c>
+      <c r="EU2" s="6" t="s">
+        <v>568</v>
+      </c>
+      <c r="EV2" s="6" t="s">
         <v>564</v>
       </c>
-      <c r="EU2" s="6" t="s">
-        <v>569</v>
-      </c>
-      <c r="EV2" s="6" t="s">
-        <v>565</v>
-      </c>
       <c r="EW2" s="6" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="EX2" s="6" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="EY2" s="6" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="EZ2" s="6" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="FA2" s="6" t="s">
+        <v>583</v>
+      </c>
+      <c r="FB2" s="6" t="s">
+        <v>707</v>
+      </c>
+      <c r="FC2" s="6" t="s">
         <v>584</v>
       </c>
-      <c r="FB2" s="6" t="s">
-        <v>708</v>
-      </c>
-      <c r="FC2" s="6" t="s">
-        <v>585</v>
-      </c>
       <c r="FD2" s="6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="FE2" s="6" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="FF2" s="6" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="FG2" s="6" t="s">
+        <v>599</v>
+      </c>
+      <c r="FH2" s="6" t="s">
+        <v>598</v>
+      </c>
+      <c r="FI2" s="6" t="s">
         <v>600</v>
       </c>
-      <c r="FH2" s="6" t="s">
-        <v>599</v>
-      </c>
-      <c r="FI2" s="6" t="s">
-        <v>601</v>
-      </c>
       <c r="FJ2" s="6" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="FK2" s="20" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="FL2" s="6" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:168" ht="17" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
       <c r="B3" s="9" t="s">
+        <v>920</v>
+      </c>
+      <c r="C3" s="10" t="s">
+        <v>716</v>
+      </c>
+      <c r="D3" s="6" t="s">
+        <v>717</v>
+      </c>
+      <c r="E3" s="6" t="s">
+        <v>720</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>719</v>
+      </c>
+      <c r="G3" s="6" t="s">
+        <v>721</v>
+      </c>
+      <c r="H3" s="20" t="s">
         <v>921</v>
       </c>
-      <c r="C3" s="10" t="s">
-        <v>717</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>718</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>721</v>
-      </c>
-      <c r="F3" s="6" t="s">
-        <v>720</v>
-      </c>
-      <c r="G3" s="6" t="s">
-        <v>722</v>
-      </c>
-      <c r="H3" s="20" t="s">
+      <c r="I3" s="6" t="s">
+        <v>723</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>724</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>725</v>
+      </c>
+      <c r="L3" s="6" t="s">
+        <v>726</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>727</v>
+      </c>
+      <c r="N3" s="6" t="s">
         <v>922</v>
       </c>
-      <c r="I3" s="6" t="s">
-        <v>724</v>
-      </c>
-      <c r="J3" s="6" t="s">
-        <v>725</v>
-      </c>
-      <c r="K3" s="6" t="s">
-        <v>726</v>
-      </c>
-      <c r="L3" s="6" t="s">
-        <v>727</v>
-      </c>
-      <c r="M3" s="6" t="s">
+      <c r="O3" s="6" t="s">
+        <v>731</v>
+      </c>
+      <c r="P3" s="6" t="s">
+        <v>923</v>
+      </c>
+      <c r="Q3" s="6" t="s">
         <v>728</v>
       </c>
-      <c r="N3" s="6" t="s">
-        <v>923</v>
-      </c>
-      <c r="O3" s="6" t="s">
+      <c r="R3" s="6" t="s">
         <v>732</v>
       </c>
-      <c r="P3" s="6" t="s">
-        <v>924</v>
-      </c>
-      <c r="Q3" s="6" t="s">
-        <v>729</v>
-      </c>
-      <c r="R3" s="6" t="s">
+      <c r="S3" s="20" t="s">
         <v>733</v>
       </c>
-      <c r="S3" s="20" t="s">
+      <c r="T3" s="6" t="s">
+        <v>895</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>734</v>
       </c>
-      <c r="T3" s="6" t="s">
+      <c r="V3" s="6" t="s">
+        <v>735</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>737</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>738</v>
+      </c>
+      <c r="Y3" s="6" t="s">
+        <v>741</v>
+      </c>
+      <c r="Z3" s="6" t="s">
+        <v>740</v>
+      </c>
+      <c r="AA3" s="6" t="s">
+        <v>742</v>
+      </c>
+      <c r="AB3" s="6" t="s">
+        <v>743</v>
+      </c>
+      <c r="AC3" s="20" t="s">
+        <v>747</v>
+      </c>
+      <c r="AD3" s="6" t="s">
+        <v>744</v>
+      </c>
+      <c r="AE3" s="6" t="s">
+        <v>748</v>
+      </c>
+      <c r="AF3" s="6" t="s">
+        <v>749</v>
+      </c>
+      <c r="AG3" s="6" t="s">
+        <v>750</v>
+      </c>
+      <c r="AH3" s="6" t="s">
+        <v>752</v>
+      </c>
+      <c r="AI3" s="6" t="s">
+        <v>754</v>
+      </c>
+      <c r="AJ3" s="6" t="s">
+        <v>753</v>
+      </c>
+      <c r="AK3" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="AL3" s="6" t="s">
+        <v>757</v>
+      </c>
+      <c r="AM3" s="6" t="s">
+        <v>756</v>
+      </c>
+      <c r="AN3" s="6" t="s">
+        <v>758</v>
+      </c>
+      <c r="AO3" s="6" t="s">
+        <v>759</v>
+      </c>
+      <c r="AP3" s="6" t="s">
+        <v>760</v>
+      </c>
+      <c r="AQ3" s="6" t="s">
+        <v>761</v>
+      </c>
+      <c r="AR3" s="6" t="s">
+        <v>762</v>
+      </c>
+      <c r="AS3" s="6" t="s">
+        <v>764</v>
+      </c>
+      <c r="AT3" s="6" t="s">
+        <v>763</v>
+      </c>
+      <c r="AU3" s="6" t="s">
+        <v>765</v>
+      </c>
+      <c r="AV3" s="6" t="s">
+        <v>766</v>
+      </c>
+      <c r="AW3" s="6" t="s">
+        <v>767</v>
+      </c>
+      <c r="AX3" s="6" t="s">
+        <v>768</v>
+      </c>
+      <c r="AY3" s="6" t="s">
+        <v>769</v>
+      </c>
+      <c r="AZ3" s="6" t="s">
+        <v>770</v>
+      </c>
+      <c r="BA3" s="6" t="s">
+        <v>771</v>
+      </c>
+      <c r="BB3" s="6" t="s">
+        <v>773</v>
+      </c>
+      <c r="BC3" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="BD3" s="6" t="s">
+        <v>772</v>
+      </c>
+      <c r="BE3" s="6" t="s">
+        <v>776</v>
+      </c>
+      <c r="BF3" s="6" t="s">
+        <v>777</v>
+      </c>
+      <c r="BG3" s="6" t="s">
+        <v>779</v>
+      </c>
+      <c r="BH3" s="6" t="s">
+        <v>778</v>
+      </c>
+      <c r="BI3" s="24" t="s">
+        <v>937</v>
+      </c>
+      <c r="BJ3" s="6" t="s">
+        <v>780</v>
+      </c>
+      <c r="BK3" s="6" t="s">
+        <v>781</v>
+      </c>
+      <c r="BL3" s="6" t="s">
         <v>896</v>
       </c>
-      <c r="U3" s="6" t="s">
-        <v>735</v>
-      </c>
-      <c r="V3" s="6" t="s">
-        <v>736</v>
-      </c>
-      <c r="W3" s="6" t="s">
-        <v>738</v>
-      </c>
-      <c r="X3" s="6" t="s">
-        <v>739</v>
-      </c>
-      <c r="Y3" s="6" t="s">
-        <v>742</v>
-      </c>
-      <c r="Z3" s="6" t="s">
-        <v>741</v>
-      </c>
-      <c r="AA3" s="6" t="s">
-        <v>743</v>
-      </c>
-      <c r="AB3" s="6" t="s">
-        <v>744</v>
-      </c>
-      <c r="AC3" s="20" t="s">
-        <v>748</v>
-      </c>
-      <c r="AD3" s="6" t="s">
-        <v>745</v>
-      </c>
-      <c r="AE3" s="6" t="s">
-        <v>749</v>
-      </c>
-      <c r="AF3" s="6" t="s">
-        <v>750</v>
-      </c>
-      <c r="AG3" s="6" t="s">
-        <v>751</v>
-      </c>
-      <c r="AH3" s="6" t="s">
-        <v>753</v>
-      </c>
-      <c r="AI3" s="6" t="s">
-        <v>755</v>
-      </c>
-      <c r="AJ3" s="6" t="s">
-        <v>754</v>
-      </c>
-      <c r="AK3" s="6" t="s">
-        <v>756</v>
-      </c>
-      <c r="AL3" s="6" t="s">
-        <v>758</v>
-      </c>
-      <c r="AM3" s="6" t="s">
-        <v>757</v>
-      </c>
-      <c r="AN3" s="6" t="s">
-        <v>759</v>
-      </c>
-      <c r="AO3" s="6" t="s">
-        <v>760</v>
-      </c>
-      <c r="AP3" s="6" t="s">
-        <v>761</v>
-      </c>
-      <c r="AQ3" s="6" t="s">
-        <v>762</v>
-      </c>
-      <c r="AR3" s="6" t="s">
-        <v>763</v>
-      </c>
-      <c r="AS3" s="6" t="s">
-        <v>765</v>
-      </c>
-      <c r="AT3" s="6" t="s">
-        <v>764</v>
-      </c>
-      <c r="AU3" s="6" t="s">
-        <v>766</v>
-      </c>
-      <c r="AV3" s="6" t="s">
-        <v>767</v>
-      </c>
-      <c r="AW3" s="6" t="s">
-        <v>768</v>
-      </c>
-      <c r="AX3" s="6" t="s">
-        <v>769</v>
-      </c>
-      <c r="AY3" s="6" t="s">
-        <v>770</v>
-      </c>
-      <c r="AZ3" s="6" t="s">
-        <v>771</v>
-      </c>
-      <c r="BA3" s="6" t="s">
-        <v>772</v>
-      </c>
-      <c r="BB3" s="6" t="s">
-        <v>774</v>
-      </c>
-      <c r="BC3" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="BD3" s="6" t="s">
-        <v>773</v>
-      </c>
-      <c r="BE3" s="6" t="s">
-        <v>777</v>
-      </c>
-      <c r="BF3" s="6" t="s">
-        <v>778</v>
-      </c>
-      <c r="BG3" s="6" t="s">
-        <v>780</v>
-      </c>
-      <c r="BH3" s="6" t="s">
-        <v>779</v>
-      </c>
-      <c r="BI3" s="24" t="s">
+      <c r="BM3" s="6" t="s">
+        <v>782</v>
+      </c>
+      <c r="BN3" s="6" t="s">
+        <v>783</v>
+      </c>
+      <c r="BO3" s="6" t="s">
+        <v>784</v>
+      </c>
+      <c r="BP3" s="6" t="s">
+        <v>785</v>
+      </c>
+      <c r="BQ3" s="6" t="s">
+        <v>786</v>
+      </c>
+      <c r="BR3" s="6" t="s">
+        <v>897</v>
+      </c>
+      <c r="BS3" s="20" t="s">
+        <v>787</v>
+      </c>
+      <c r="BT3" s="6" t="s">
+        <v>789</v>
+      </c>
+      <c r="BU3" s="6" t="s">
+        <v>788</v>
+      </c>
+      <c r="BV3" s="6" t="s">
+        <v>790</v>
+      </c>
+      <c r="BW3" s="20" t="s">
+        <v>898</v>
+      </c>
+      <c r="BX3" s="6" t="s">
+        <v>792</v>
+      </c>
+      <c r="BY3" s="6" t="s">
+        <v>791</v>
+      </c>
+      <c r="BZ3" s="6" t="s">
+        <v>793</v>
+      </c>
+      <c r="CA3" s="6" t="s">
+        <v>798</v>
+      </c>
+      <c r="CB3" s="6" t="s">
+        <v>799</v>
+      </c>
+      <c r="CC3" s="6" t="s">
+        <v>800</v>
+      </c>
+      <c r="CD3" s="6" t="s">
+        <v>805</v>
+      </c>
+      <c r="CE3" s="6" t="s">
+        <v>812</v>
+      </c>
+      <c r="CF3" s="6" t="s">
+        <v>813</v>
+      </c>
+      <c r="CG3" s="6" t="s">
+        <v>899</v>
+      </c>
+      <c r="CH3" s="6" t="s">
+        <v>900</v>
+      </c>
+      <c r="CI3" s="6" t="s">
+        <v>814</v>
+      </c>
+      <c r="CJ3" s="6" t="s">
+        <v>815</v>
+      </c>
+      <c r="CK3" s="6" t="s">
+        <v>816</v>
+      </c>
+      <c r="CL3" s="6" t="s">
+        <v>817</v>
+      </c>
+      <c r="CM3" s="6" t="s">
+        <v>818</v>
+      </c>
+      <c r="CN3" s="6" t="s">
+        <v>819</v>
+      </c>
+      <c r="CO3" s="6" t="s">
+        <v>820</v>
+      </c>
+      <c r="CP3" s="6" t="s">
+        <v>821</v>
+      </c>
+      <c r="CQ3" s="6" t="s">
+        <v>822</v>
+      </c>
+      <c r="CR3" s="6" t="s">
+        <v>823</v>
+      </c>
+      <c r="CS3" s="6" t="s">
+        <v>824</v>
+      </c>
+      <c r="CT3" s="24" t="s">
+        <v>965</v>
+      </c>
+      <c r="CU3" s="6" t="s">
+        <v>826</v>
+      </c>
+      <c r="CV3" s="20" t="s">
+        <v>828</v>
+      </c>
+      <c r="CW3" s="6" t="s">
+        <v>827</v>
+      </c>
+      <c r="CX3" s="6" t="s">
+        <v>830</v>
+      </c>
+      <c r="CY3" s="6" t="s">
+        <v>831</v>
+      </c>
+      <c r="CZ3" s="6" t="s">
+        <v>832</v>
+      </c>
+      <c r="DA3" s="6" t="s">
+        <v>833</v>
+      </c>
+      <c r="DB3" s="6" t="s">
+        <v>834</v>
+      </c>
+      <c r="DC3" s="6" t="s">
+        <v>836</v>
+      </c>
+      <c r="DD3" s="6" t="s">
+        <v>835</v>
+      </c>
+      <c r="DE3" s="6" t="s">
+        <v>838</v>
+      </c>
+      <c r="DF3" s="6" t="s">
+        <v>837</v>
+      </c>
+      <c r="DG3" s="24" t="s">
         <v>938</v>
       </c>
-      <c r="BJ3" s="6" t="s">
-        <v>781</v>
-      </c>
-      <c r="BK3" s="6" t="s">
-        <v>782</v>
-      </c>
-      <c r="BL3" s="6" t="s">
-        <v>897</v>
-      </c>
-      <c r="BM3" s="6" t="s">
-        <v>783</v>
-      </c>
-      <c r="BN3" s="6" t="s">
-        <v>784</v>
-      </c>
-      <c r="BO3" s="6" t="s">
-        <v>785</v>
-      </c>
-      <c r="BP3" s="6" t="s">
-        <v>786</v>
-      </c>
-      <c r="BQ3" s="6" t="s">
-        <v>787</v>
-      </c>
-      <c r="BR3" s="6" t="s">
-        <v>898</v>
-      </c>
-      <c r="BS3" s="20" t="s">
-        <v>788</v>
-      </c>
-      <c r="BT3" s="6" t="s">
-        <v>790</v>
-      </c>
-      <c r="BU3" s="6" t="s">
-        <v>789</v>
-      </c>
-      <c r="BV3" s="6" t="s">
-        <v>791</v>
-      </c>
-      <c r="BW3" s="20" t="s">
-        <v>899</v>
-      </c>
-      <c r="BX3" s="6" t="s">
-        <v>793</v>
-      </c>
-      <c r="BY3" s="6" t="s">
-        <v>792</v>
-      </c>
-      <c r="BZ3" s="6" t="s">
-        <v>794</v>
-      </c>
-      <c r="CA3" s="6" t="s">
-        <v>799</v>
-      </c>
-      <c r="CB3" s="6" t="s">
-        <v>800</v>
-      </c>
-      <c r="CC3" s="6" t="s">
-        <v>801</v>
-      </c>
-      <c r="CD3" s="6" t="s">
-        <v>806</v>
-      </c>
-      <c r="CE3" s="6" t="s">
-        <v>813</v>
-      </c>
-      <c r="CF3" s="6" t="s">
-        <v>814</v>
-      </c>
-      <c r="CG3" s="6" t="s">
-        <v>900</v>
-      </c>
-      <c r="CH3" s="6" t="s">
+      <c r="DH3" s="6" t="s">
+        <v>841</v>
+      </c>
+      <c r="DI3" s="6" t="s">
+        <v>842</v>
+      </c>
+      <c r="DJ3" s="6" t="s">
+        <v>843</v>
+      </c>
+      <c r="DK3" s="6" t="s">
+        <v>840</v>
+      </c>
+      <c r="DL3" s="6" t="s">
+        <v>839</v>
+      </c>
+      <c r="DM3" s="6" t="s">
+        <v>844</v>
+      </c>
+      <c r="DN3" s="6" t="s">
+        <v>845</v>
+      </c>
+      <c r="DO3" s="6" t="s">
+        <v>846</v>
+      </c>
+      <c r="DP3" s="6" t="s">
+        <v>847</v>
+      </c>
+      <c r="DQ3" s="6" t="s">
+        <v>848</v>
+      </c>
+      <c r="DR3" s="6" t="s">
+        <v>849</v>
+      </c>
+      <c r="DS3" s="6" t="s">
+        <v>850</v>
+      </c>
+      <c r="DT3" s="6" t="s">
+        <v>851</v>
+      </c>
+      <c r="DU3" s="6" t="s">
+        <v>852</v>
+      </c>
+      <c r="DV3" s="6" t="s">
+        <v>853</v>
+      </c>
+      <c r="DW3" s="6" t="s">
+        <v>854</v>
+      </c>
+      <c r="DX3" s="6" t="s">
+        <v>855</v>
+      </c>
+      <c r="DY3" s="6" t="s">
+        <v>856</v>
+      </c>
+      <c r="DZ3" s="6" t="s">
+        <v>857</v>
+      </c>
+      <c r="EA3" s="6" t="s">
+        <v>863</v>
+      </c>
+      <c r="EB3" s="6" t="s">
+        <v>862</v>
+      </c>
+      <c r="EC3" s="6" t="s">
+        <v>861</v>
+      </c>
+      <c r="ED3" s="6" t="s">
+        <v>860</v>
+      </c>
+      <c r="EE3" s="6" t="s">
+        <v>859</v>
+      </c>
+      <c r="EF3" s="6" t="s">
+        <v>858</v>
+      </c>
+      <c r="EG3" s="6" t="s">
+        <v>903</v>
+      </c>
+      <c r="EH3" s="6" t="s">
+        <v>864</v>
+      </c>
+      <c r="EI3" s="6" t="s">
+        <v>865</v>
+      </c>
+      <c r="EJ3" s="6" t="s">
+        <v>867</v>
+      </c>
+      <c r="EK3" s="6" t="s">
+        <v>927</v>
+      </c>
+      <c r="EL3" s="6" t="s">
+        <v>866</v>
+      </c>
+      <c r="EM3" s="6" t="s">
+        <v>868</v>
+      </c>
+      <c r="EN3" s="6" t="s">
+        <v>869</v>
+      </c>
+      <c r="EO3" s="6" t="s">
+        <v>547</v>
+      </c>
+      <c r="EP3" s="6" t="s">
+        <v>870</v>
+      </c>
+      <c r="EQ3" s="6" t="s">
+        <v>871</v>
+      </c>
+      <c r="ER3" s="6" t="s">
+        <v>872</v>
+      </c>
+      <c r="ES3" s="6" t="s">
+        <v>874</v>
+      </c>
+      <c r="ET3" s="6" t="s">
+        <v>876</v>
+      </c>
+      <c r="EU3" s="6" t="s">
+        <v>877</v>
+      </c>
+      <c r="EV3" s="6" t="s">
+        <v>878</v>
+      </c>
+      <c r="EW3" s="6" t="s">
+        <v>879</v>
+      </c>
+      <c r="EX3" s="6" t="s">
+        <v>880</v>
+      </c>
+      <c r="EY3" s="6" t="s">
         <v>901</v>
       </c>
-      <c r="CI3" s="6" t="s">
-        <v>815</v>
-      </c>
-      <c r="CJ3" s="6" t="s">
-        <v>816</v>
-      </c>
-      <c r="CK3" s="6" t="s">
-        <v>817</v>
-      </c>
-      <c r="CL3" s="6" t="s">
-        <v>818</v>
-      </c>
-      <c r="CM3" s="6" t="s">
-        <v>819</v>
-      </c>
-      <c r="CN3" s="6" t="s">
-        <v>820</v>
-      </c>
-      <c r="CO3" s="6" t="s">
-        <v>821</v>
-      </c>
-      <c r="CP3" s="6" t="s">
-        <v>822</v>
-      </c>
-      <c r="CQ3" s="6" t="s">
-        <v>823</v>
-      </c>
-      <c r="CR3" s="6" t="s">
-        <v>824</v>
-      </c>
-      <c r="CS3" s="6" t="s">
-        <v>825</v>
-      </c>
-      <c r="CT3" s="24" t="s">
-        <v>966</v>
-      </c>
-      <c r="CU3" s="6" t="s">
-        <v>827</v>
-      </c>
-      <c r="CV3" s="20" t="s">
-        <v>829</v>
-      </c>
-      <c r="CW3" s="6" t="s">
-        <v>828</v>
-      </c>
-      <c r="CX3" s="6" t="s">
-        <v>831</v>
-      </c>
-      <c r="CY3" s="6" t="s">
-        <v>832</v>
-      </c>
-      <c r="CZ3" s="6" t="s">
-        <v>833</v>
-      </c>
-      <c r="DA3" s="6" t="s">
-        <v>834</v>
-      </c>
-      <c r="DB3" s="6" t="s">
-        <v>835</v>
-      </c>
-      <c r="DC3" s="6" t="s">
-        <v>837</v>
-      </c>
-      <c r="DD3" s="6" t="s">
-        <v>836</v>
-      </c>
-      <c r="DE3" s="6" t="s">
-        <v>839</v>
-      </c>
-      <c r="DF3" s="6" t="s">
-        <v>838</v>
-      </c>
-      <c r="DG3" s="24" t="s">
-        <v>939</v>
-      </c>
-      <c r="DH3" s="6" t="s">
-        <v>842</v>
-      </c>
-      <c r="DI3" s="6" t="s">
-        <v>843</v>
-      </c>
-      <c r="DJ3" s="6" t="s">
-        <v>844</v>
-      </c>
-      <c r="DK3" s="6" t="s">
-        <v>841</v>
-      </c>
-      <c r="DL3" s="6" t="s">
-        <v>840</v>
-      </c>
-      <c r="DM3" s="6" t="s">
-        <v>845</v>
-      </c>
-      <c r="DN3" s="6" t="s">
-        <v>846</v>
-      </c>
-      <c r="DO3" s="6" t="s">
-        <v>847</v>
-      </c>
-      <c r="DP3" s="6" t="s">
-        <v>848</v>
-      </c>
-      <c r="DQ3" s="6" t="s">
-        <v>849</v>
-      </c>
-      <c r="DR3" s="6" t="s">
-        <v>850</v>
-      </c>
-      <c r="DS3" s="6" t="s">
-        <v>851</v>
-      </c>
-      <c r="DT3" s="6" t="s">
-        <v>852</v>
-      </c>
-      <c r="DU3" s="6" t="s">
-        <v>853</v>
-      </c>
-      <c r="DV3" s="6" t="s">
-        <v>854</v>
-      </c>
-      <c r="DW3" s="6" t="s">
-        <v>855</v>
-      </c>
-      <c r="DX3" s="6" t="s">
-        <v>856</v>
-      </c>
-      <c r="DY3" s="6" t="s">
-        <v>857</v>
-      </c>
-      <c r="DZ3" s="6" t="s">
-        <v>858</v>
-      </c>
-      <c r="EA3" s="6" t="s">
-        <v>864</v>
-      </c>
-      <c r="EB3" s="6" t="s">
-        <v>863</v>
-      </c>
-      <c r="EC3" s="6" t="s">
-        <v>862</v>
-      </c>
-      <c r="ED3" s="6" t="s">
-        <v>861</v>
-      </c>
-      <c r="EE3" s="6" t="s">
-        <v>860</v>
-      </c>
-      <c r="EF3" s="6" t="s">
-        <v>859</v>
-      </c>
-      <c r="EG3" s="6" t="s">
-        <v>904</v>
-      </c>
-      <c r="EH3" s="6" t="s">
-        <v>865</v>
-      </c>
-      <c r="EI3" s="6" t="s">
-        <v>866</v>
-      </c>
-      <c r="EJ3" s="6" t="s">
-        <v>868</v>
-      </c>
-      <c r="EK3" s="6" t="s">
-        <v>928</v>
-      </c>
-      <c r="EL3" s="6" t="s">
-        <v>867</v>
-      </c>
-      <c r="EM3" s="6" t="s">
-        <v>869</v>
-      </c>
-      <c r="EN3" s="6" t="s">
-        <v>870</v>
-      </c>
-      <c r="EO3" s="6" t="s">
-        <v>548</v>
-      </c>
-      <c r="EP3" s="6" t="s">
-        <v>871</v>
-      </c>
-      <c r="EQ3" s="6" t="s">
-        <v>872</v>
-      </c>
-      <c r="ER3" s="6" t="s">
-        <v>873</v>
-      </c>
-      <c r="ES3" s="6" t="s">
-        <v>875</v>
-      </c>
-      <c r="ET3" s="6" t="s">
-        <v>877</v>
-      </c>
-      <c r="EU3" s="6" t="s">
-        <v>878</v>
-      </c>
-      <c r="EV3" s="6" t="s">
-        <v>879</v>
-      </c>
-      <c r="EW3" s="6" t="s">
-        <v>880</v>
-      </c>
-      <c r="EX3" s="6" t="s">
+      <c r="EZ3" s="6" t="s">
         <v>881</v>
       </c>
-      <c r="EY3" s="6" t="s">
+      <c r="FA3" s="6" t="s">
         <v>902</v>
       </c>
-      <c r="EZ3" s="6" t="s">
-        <v>882</v>
-      </c>
-      <c r="FA3" s="6" t="s">
-        <v>903</v>
-      </c>
       <c r="FB3" s="6" t="s">
+        <v>883</v>
+      </c>
+      <c r="FC3" s="6" t="s">
         <v>884</v>
       </c>
-      <c r="FC3" s="6" t="s">
+      <c r="FD3" s="6" t="s">
         <v>885</v>
       </c>
-      <c r="FD3" s="6" t="s">
+      <c r="FE3" s="6" t="s">
         <v>886</v>
       </c>
-      <c r="FE3" s="6" t="s">
+      <c r="FF3" s="6" t="s">
         <v>887</v>
       </c>
-      <c r="FF3" s="6" t="s">
+      <c r="FG3" s="6" t="s">
         <v>888</v>
       </c>
-      <c r="FG3" s="6" t="s">
+      <c r="FH3" s="6" t="s">
         <v>889</v>
       </c>
-      <c r="FH3" s="6" t="s">
+      <c r="FI3" s="6" t="s">
         <v>890</v>
       </c>
-      <c r="FI3" s="6" t="s">
+      <c r="FJ3" s="6" t="s">
         <v>891</v>
       </c>
-      <c r="FJ3" s="6" t="s">
-        <v>892</v>
-      </c>
       <c r="FK3" s="20" t="s">
-        <v>895</v>
+        <v>894</v>
       </c>
       <c r="FL3" s="6" t="s">
-        <v>894</v>
+        <v>893</v>
       </c>
     </row>
     <row r="4" spans="1:168" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
       <c r="B4" s="9" t="s">
+        <v>190</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>666</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>247</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>615</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>916</v>
+      </c>
+      <c r="I4" s="6" t="s">
+        <v>679</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>205</v>
+      </c>
+      <c r="K4" s="6" t="s">
         <v>191</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>667</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>246</v>
-      </c>
-      <c r="E4" s="6" t="s">
-        <v>248</v>
-      </c>
-      <c r="F4" s="6" t="s">
-        <v>242</v>
-      </c>
-      <c r="G4" s="6" t="s">
-        <v>616</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>917</v>
-      </c>
-      <c r="I4" s="6" t="s">
-        <v>680</v>
-      </c>
-      <c r="J4" s="6" t="s">
-        <v>206</v>
-      </c>
-      <c r="K4" s="6" t="s">
-        <v>192</v>
-      </c>
       <c r="L4" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="M4" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="N4" s="6" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="P4" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="Q4" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="R4" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="S4" s="20" t="s">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="T4" s="6" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="U4" s="6" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="V4" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="W4" s="6" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="X4" s="6" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="Y4" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="Z4" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="AA4" s="6" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="AB4" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AC4" s="20" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AD4" s="6" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="AE4" s="6" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="AF4" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="AG4" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="AH4" s="6" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AI4" s="6" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="AJ4" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="AK4" s="6" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="AL4" s="6" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="AM4" s="6" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="AN4" s="6" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AO4" s="6" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="AP4" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AQ4" s="6" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="AR4" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="AS4" s="6" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="AT4" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="AU4" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="AV4" s="6" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="AW4" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="AX4" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="AY4" s="6" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="AZ4" s="6" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="BA4" s="6" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="BB4" s="6" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="BC4" s="6" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="BD4" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="BE4" s="6" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="BF4" s="6" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="BG4" s="6" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="BH4" s="6" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="BI4" s="24" t="s">
+        <v>968</v>
+      </c>
+      <c r="BJ4" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="BK4" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="BL4" s="6" t="s">
+        <v>331</v>
+      </c>
+      <c r="BM4" s="6" t="s">
+        <v>700</v>
+      </c>
+      <c r="BN4" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="BO4" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="BP4" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="BQ4" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="BR4" s="6" t="s">
+        <v>349</v>
+      </c>
+      <c r="BS4" s="20" t="s">
+        <v>905</v>
+      </c>
+      <c r="BT4" s="6" t="s">
+        <v>352</v>
+      </c>
+      <c r="BU4" s="6" t="s">
+        <v>355</v>
+      </c>
+      <c r="BV4" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="BW4" s="20" t="s">
+        <v>907</v>
+      </c>
+      <c r="BX4" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="BY4" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="BZ4" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="CA4" s="6" t="s">
+        <v>794</v>
+      </c>
+      <c r="CB4" s="6" t="s">
+        <v>797</v>
+      </c>
+      <c r="CC4" s="6" t="s">
+        <v>802</v>
+      </c>
+      <c r="CD4" s="6" t="s">
+        <v>803</v>
+      </c>
+      <c r="CE4" s="6" t="s">
+        <v>810</v>
+      </c>
+      <c r="CF4" s="6" t="s">
+        <v>811</v>
+      </c>
+      <c r="CG4" s="6" t="s">
+        <v>809</v>
+      </c>
+      <c r="CH4" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="CI4" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="CJ4" s="6" t="s">
+        <v>704</v>
+      </c>
+      <c r="CK4" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="CL4" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="CM4" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="CN4" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="CO4" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="CP4" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="CQ4" s="6" t="s">
+        <v>406</v>
+      </c>
+      <c r="CR4" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="CS4" s="6" t="s">
+        <v>412</v>
+      </c>
+      <c r="CT4" s="24" t="s">
         <v>969</v>
       </c>
-      <c r="BJ4" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="BK4" s="6" t="s">
-        <v>327</v>
-      </c>
-      <c r="BL4" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="BM4" s="6" t="s">
-        <v>701</v>
-      </c>
-      <c r="BN4" s="6" t="s">
-        <v>335</v>
-      </c>
-      <c r="BO4" s="6" t="s">
-        <v>340</v>
-      </c>
-      <c r="BP4" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="BQ4" s="6" t="s">
-        <v>347</v>
-      </c>
-      <c r="BR4" s="6" t="s">
-        <v>350</v>
-      </c>
-      <c r="BS4" s="20" t="s">
-        <v>906</v>
-      </c>
-      <c r="BT4" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="BU4" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="BV4" s="6" t="s">
-        <v>360</v>
-      </c>
-      <c r="BW4" s="20" t="s">
-        <v>908</v>
-      </c>
-      <c r="BX4" s="6" t="s">
-        <v>364</v>
-      </c>
-      <c r="BY4" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="BZ4" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="CA4" s="6" t="s">
-        <v>795</v>
-      </c>
-      <c r="CB4" s="6" t="s">
-        <v>798</v>
-      </c>
-      <c r="CC4" s="6" t="s">
-        <v>803</v>
-      </c>
-      <c r="CD4" s="6" t="s">
-        <v>804</v>
-      </c>
-      <c r="CE4" s="6" t="s">
-        <v>811</v>
-      </c>
-      <c r="CF4" s="6" t="s">
-        <v>812</v>
-      </c>
-      <c r="CG4" s="6" t="s">
-        <v>810</v>
-      </c>
-      <c r="CH4" s="6" t="s">
-        <v>380</v>
-      </c>
-      <c r="CI4" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="CJ4" s="6" t="s">
-        <v>705</v>
-      </c>
-      <c r="CK4" s="6" t="s">
-        <v>387</v>
-      </c>
-      <c r="CL4" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="CM4" s="6" t="s">
-        <v>393</v>
-      </c>
-      <c r="CN4" s="6" t="s">
-        <v>397</v>
-      </c>
-      <c r="CO4" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="CP4" s="6" t="s">
-        <v>404</v>
-      </c>
-      <c r="CQ4" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="CR4" s="6" t="s">
-        <v>411</v>
-      </c>
-      <c r="CS4" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="CT4" s="24" t="s">
+      <c r="CU4" s="11" t="s">
+        <v>415</v>
+      </c>
+      <c r="CV4" s="20" t="s">
+        <v>909</v>
+      </c>
+      <c r="CW4" s="6" t="s">
+        <v>417</v>
+      </c>
+      <c r="CX4" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="CY4" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="CZ4" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="DA4" s="6" t="s">
+        <v>621</v>
+      </c>
+      <c r="DB4" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="DC4" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="DD4" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="DE4" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="DF4" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="DG4" s="24" t="s">
         <v>970</v>
       </c>
-      <c r="CU4" s="11" t="s">
-        <v>416</v>
-      </c>
-      <c r="CV4" s="20" t="s">
+      <c r="DH4" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="DI4" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="DJ4" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="DK4" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="DL4" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="DM4" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="DN4" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="DO4" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="DP4" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="DQ4" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="DR4" s="6" t="s">
+        <v>483</v>
+      </c>
+      <c r="DS4" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="DT4" s="6" t="s">
+        <v>489</v>
+      </c>
+      <c r="DU4" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="DV4" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="DW4" s="6" t="s">
+        <v>499</v>
+      </c>
+      <c r="DX4" s="6" t="s">
+        <v>503</v>
+      </c>
+      <c r="DY4" s="6" t="s">
+        <v>506</v>
+      </c>
+      <c r="DZ4" s="6" t="s">
+        <v>510</v>
+      </c>
+      <c r="EA4" s="6" t="s">
+        <v>513</v>
+      </c>
+      <c r="EB4" s="6" t="s">
+        <v>516</v>
+      </c>
+      <c r="EC4" s="6" t="s">
+        <v>519</v>
+      </c>
+      <c r="ED4" s="6" t="s">
+        <v>522</v>
+      </c>
+      <c r="EE4" s="6" t="s">
+        <v>525</v>
+      </c>
+      <c r="EF4" s="6" t="s">
+        <v>532</v>
+      </c>
+      <c r="EG4" s="6" t="s">
+        <v>528</v>
+      </c>
+      <c r="EH4" s="6" t="s">
+        <v>536</v>
+      </c>
+      <c r="EI4" s="6" t="s">
+        <v>612</v>
+      </c>
+      <c r="EJ4" s="6" t="s">
+        <v>618</v>
+      </c>
+      <c r="EK4" s="6" t="s">
+        <v>611</v>
+      </c>
+      <c r="EL4" s="6" t="s">
+        <v>540</v>
+      </c>
+      <c r="EM4" s="6" t="s">
+        <v>544</v>
+      </c>
+      <c r="EN4" s="6" t="s">
+        <v>663</v>
+      </c>
+      <c r="EO4" s="6" t="s">
+        <v>548</v>
+      </c>
+      <c r="EP4" s="6" t="s">
+        <v>552</v>
+      </c>
+      <c r="EQ4" s="6" t="s">
+        <v>555</v>
+      </c>
+      <c r="ER4" s="6" t="s">
+        <v>559</v>
+      </c>
+      <c r="ES4" s="6" t="s">
+        <v>562</v>
+      </c>
+      <c r="ET4" s="6" t="s">
+        <v>911</v>
+      </c>
+      <c r="EU4" s="6" t="s">
+        <v>569</v>
+      </c>
+      <c r="EV4" s="6" t="s">
+        <v>565</v>
+      </c>
+      <c r="EW4" s="6" t="s">
+        <v>573</v>
+      </c>
+      <c r="EX4" s="6" t="s">
+        <v>576</v>
+      </c>
+      <c r="EY4" s="6" t="s">
+        <v>579</v>
+      </c>
+      <c r="EZ4" s="6" t="s">
+        <v>582</v>
+      </c>
+      <c r="FA4" s="6" t="s">
+        <v>588</v>
+      </c>
+      <c r="FB4" s="6" t="s">
+        <v>709</v>
+      </c>
+      <c r="FC4" s="6" t="s">
+        <v>585</v>
+      </c>
+      <c r="FD4" s="6" t="s">
+        <v>591</v>
+      </c>
+      <c r="FE4" s="6" t="s">
+        <v>713</v>
+      </c>
+      <c r="FF4" s="6" t="s">
+        <v>595</v>
+      </c>
+      <c r="FG4" s="6" t="s">
+        <v>603</v>
+      </c>
+      <c r="FH4" s="6" t="s">
+        <v>606</v>
+      </c>
+      <c r="FI4" s="6" t="s">
+        <v>608</v>
+      </c>
+      <c r="FJ4" s="6" t="s">
+        <v>601</v>
+      </c>
+      <c r="FK4" s="20" t="s">
         <v>910</v>
       </c>
-      <c r="CW4" s="6" t="s">
-        <v>418</v>
-      </c>
-      <c r="CX4" s="6" t="s">
-        <v>421</v>
-      </c>
-      <c r="CY4" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="CZ4" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="DA4" s="6" t="s">
-        <v>622</v>
-      </c>
-      <c r="DB4" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="DC4" s="6" t="s">
-        <v>435</v>
-      </c>
-      <c r="DD4" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="DE4" s="6" t="s">
-        <v>446</v>
-      </c>
-      <c r="DF4" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="DG4" s="24" t="s">
-        <v>971</v>
-      </c>
-      <c r="DH4" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="DI4" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="DJ4" s="6" t="s">
-        <v>456</v>
-      </c>
-      <c r="DK4" s="6" t="s">
-        <v>459</v>
-      </c>
-      <c r="DL4" s="6" t="s">
-        <v>462</v>
-      </c>
-      <c r="DM4" s="6" t="s">
-        <v>466</v>
-      </c>
-      <c r="DN4" s="6" t="s">
-        <v>469</v>
-      </c>
-      <c r="DO4" s="6" t="s">
-        <v>472</v>
-      </c>
-      <c r="DP4" s="6" t="s">
-        <v>476</v>
-      </c>
-      <c r="DQ4" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="DR4" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="DS4" s="6" t="s">
-        <v>487</v>
-      </c>
-      <c r="DT4" s="6" t="s">
-        <v>490</v>
-      </c>
-      <c r="DU4" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="DV4" s="6" t="s">
-        <v>496</v>
-      </c>
-      <c r="DW4" s="6" t="s">
-        <v>500</v>
-      </c>
-      <c r="DX4" s="6" t="s">
-        <v>504</v>
-      </c>
-      <c r="DY4" s="6" t="s">
-        <v>507</v>
-      </c>
-      <c r="DZ4" s="6" t="s">
-        <v>511</v>
-      </c>
-      <c r="EA4" s="6" t="s">
-        <v>514</v>
-      </c>
-      <c r="EB4" s="6" t="s">
-        <v>517</v>
-      </c>
-      <c r="EC4" s="6" t="s">
-        <v>520</v>
-      </c>
-      <c r="ED4" s="6" t="s">
-        <v>523</v>
-      </c>
-      <c r="EE4" s="6" t="s">
-        <v>526</v>
-      </c>
-      <c r="EF4" s="6" t="s">
-        <v>533</v>
-      </c>
-      <c r="EG4" s="6" t="s">
-        <v>529</v>
-      </c>
-      <c r="EH4" s="6" t="s">
-        <v>537</v>
-      </c>
-      <c r="EI4" s="6" t="s">
-        <v>613</v>
-      </c>
-      <c r="EJ4" s="6" t="s">
-        <v>619</v>
-      </c>
-      <c r="EK4" s="6" t="s">
-        <v>612</v>
-      </c>
-      <c r="EL4" s="6" t="s">
-        <v>541</v>
-      </c>
-      <c r="EM4" s="6" t="s">
-        <v>545</v>
-      </c>
-      <c r="EN4" s="6" t="s">
-        <v>664</v>
-      </c>
-      <c r="EO4" s="6" t="s">
-        <v>549</v>
-      </c>
-      <c r="EP4" s="6" t="s">
-        <v>553</v>
-      </c>
-      <c r="EQ4" s="6" t="s">
-        <v>556</v>
-      </c>
-      <c r="ER4" s="6" t="s">
-        <v>560</v>
-      </c>
-      <c r="ES4" s="6" t="s">
-        <v>563</v>
-      </c>
-      <c r="ET4" s="6" t="s">
-        <v>912</v>
-      </c>
-      <c r="EU4" s="6" t="s">
-        <v>570</v>
-      </c>
-      <c r="EV4" s="6" t="s">
-        <v>566</v>
-      </c>
-      <c r="EW4" s="6" t="s">
-        <v>574</v>
-      </c>
-      <c r="EX4" s="6" t="s">
-        <v>577</v>
-      </c>
-      <c r="EY4" s="6" t="s">
-        <v>580</v>
-      </c>
-      <c r="EZ4" s="6" t="s">
-        <v>583</v>
-      </c>
-      <c r="FA4" s="6" t="s">
-        <v>589</v>
-      </c>
-      <c r="FB4" s="6" t="s">
-        <v>710</v>
-      </c>
-      <c r="FC4" s="6" t="s">
-        <v>586</v>
-      </c>
-      <c r="FD4" s="6" t="s">
-        <v>592</v>
-      </c>
-      <c r="FE4" s="6" t="s">
-        <v>714</v>
-      </c>
-      <c r="FF4" s="6" t="s">
-        <v>596</v>
-      </c>
-      <c r="FG4" s="6" t="s">
-        <v>604</v>
-      </c>
-      <c r="FH4" s="6" t="s">
-        <v>607</v>
-      </c>
-      <c r="FI4" s="6" t="s">
-        <v>609</v>
-      </c>
-      <c r="FJ4" s="6" t="s">
-        <v>602</v>
-      </c>
-      <c r="FK4" s="20" t="s">
-        <v>911</v>
-      </c>
       <c r="FL4" s="6" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="5" spans="1:168" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
       <c r="B5" s="9" t="s">
-        <v>905</v>
+        <v>904</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D5" s="6" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="G5" s="6" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="H5" s="20" t="s">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="I5" s="6" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="J5" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="K5" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="M5" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="N5" s="6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="O5" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="P5" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="Q5" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="R5" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="S5" s="20" t="s">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="T5" s="6" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="U5" s="6" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="V5" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="W5" s="6" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="X5" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="Y5" s="6" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="Z5" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="AA5" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AB5" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="AC5" s="20" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AD5" s="6" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="AE5" s="6" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="AF5" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="AG5" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="AH5" s="6" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AI5" s="6" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="AJ5" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AK5" s="6" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="AL5" s="6" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="AM5" s="6" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="AN5" s="6" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AO5" s="6" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="AP5" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="AQ5" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="AR5" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="AS5" s="6" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="AT5" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="AU5" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="AV5" s="6" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="AW5" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="AX5" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="AY5" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="AZ5" s="6" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="BA5" s="6" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="BB5" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="BC5" s="6" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="BD5" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="BE5" s="6" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="BF5" s="6" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="BG5" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="BH5" s="6" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="BI5" s="24" t="s">
+        <v>939</v>
+      </c>
+      <c r="BJ5" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="BK5" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="BL5" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="BM5" s="6" t="s">
+        <v>701</v>
+      </c>
+      <c r="BN5" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="BO5" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="BP5" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="BQ5" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="BR5" s="6" t="s">
+        <v>350</v>
+      </c>
+      <c r="BS5" s="20" t="s">
+        <v>906</v>
+      </c>
+      <c r="BT5" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="BU5" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="BV5" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="BW5" s="20" t="s">
+        <v>908</v>
+      </c>
+      <c r="BX5" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="BY5" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="BZ5" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="CA5" s="6" t="s">
+        <v>795</v>
+      </c>
+      <c r="CB5" s="6" t="s">
+        <v>796</v>
+      </c>
+      <c r="CC5" s="6" t="s">
+        <v>801</v>
+      </c>
+      <c r="CD5" s="6" t="s">
+        <v>804</v>
+      </c>
+      <c r="CE5" s="6" t="s">
+        <v>806</v>
+      </c>
+      <c r="CF5" s="6" t="s">
+        <v>808</v>
+      </c>
+      <c r="CG5" s="6" t="s">
+        <v>807</v>
+      </c>
+      <c r="CH5" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="CI5" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="CJ5" s="6" t="s">
+        <v>705</v>
+      </c>
+      <c r="CK5" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="CL5" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="CM5" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="CN5" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="CO5" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="CP5" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="CQ5" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="CR5" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="CS5" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="CT5" s="24" t="s">
+        <v>966</v>
+      </c>
+      <c r="CU5" s="6" t="s">
+        <v>825</v>
+      </c>
+      <c r="CV5" s="20" t="s">
+        <v>829</v>
+      </c>
+      <c r="CW5" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="CX5" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="CY5" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="CZ5" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="DA5" s="6" t="s">
+        <v>622</v>
+      </c>
+      <c r="DB5" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="DC5" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="DD5" s="6" t="s">
+        <v>438</v>
+      </c>
+      <c r="DE5" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="DF5" s="6" t="s">
+        <v>443</v>
+      </c>
+      <c r="DG5" s="24" t="s">
         <v>940</v>
       </c>
-      <c r="BJ5" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="BK5" s="6" t="s">
-        <v>328</v>
-      </c>
-      <c r="BL5" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="BM5" s="6" t="s">
-        <v>702</v>
-      </c>
-      <c r="BN5" s="6" t="s">
-        <v>336</v>
-      </c>
-      <c r="BO5" s="6" t="s">
-        <v>341</v>
-      </c>
-      <c r="BP5" s="6" t="s">
-        <v>345</v>
-      </c>
-      <c r="BQ5" s="6" t="s">
-        <v>348</v>
-      </c>
-      <c r="BR5" s="6" t="s">
-        <v>351</v>
-      </c>
-      <c r="BS5" s="20" t="s">
-        <v>907</v>
-      </c>
-      <c r="BT5" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="BU5" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="BV5" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="BW5" s="20" t="s">
-        <v>909</v>
-      </c>
-      <c r="BX5" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="BY5" s="6" t="s">
-        <v>367</v>
-      </c>
-      <c r="BZ5" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="CA5" s="6" t="s">
-        <v>796</v>
-      </c>
-      <c r="CB5" s="6" t="s">
-        <v>797</v>
-      </c>
-      <c r="CC5" s="6" t="s">
-        <v>802</v>
-      </c>
-      <c r="CD5" s="6" t="s">
-        <v>805</v>
-      </c>
-      <c r="CE5" s="6" t="s">
-        <v>807</v>
-      </c>
-      <c r="CF5" s="6" t="s">
-        <v>809</v>
-      </c>
-      <c r="CG5" s="6" t="s">
-        <v>808</v>
-      </c>
-      <c r="CH5" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="CI5" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="CJ5" s="6" t="s">
-        <v>706</v>
-      </c>
-      <c r="CK5" s="6" t="s">
-        <v>388</v>
-      </c>
-      <c r="CL5" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="CM5" s="6" t="s">
-        <v>394</v>
-      </c>
-      <c r="CN5" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="CO5" s="6" t="s">
-        <v>402</v>
-      </c>
-      <c r="CP5" s="6" t="s">
-        <v>405</v>
-      </c>
-      <c r="CQ5" s="6" t="s">
-        <v>408</v>
-      </c>
-      <c r="CR5" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="CS5" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="CT5" s="24" t="s">
-        <v>967</v>
-      </c>
-      <c r="CU5" s="6" t="s">
-        <v>826</v>
-      </c>
-      <c r="CV5" s="20" t="s">
-        <v>830</v>
-      </c>
-      <c r="CW5" s="6" t="s">
-        <v>419</v>
-      </c>
-      <c r="CX5" s="6" t="s">
-        <v>422</v>
-      </c>
-      <c r="CY5" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="CZ5" s="6" t="s">
-        <v>428</v>
-      </c>
-      <c r="DA5" s="6" t="s">
-        <v>623</v>
-      </c>
-      <c r="DB5" s="6" t="s">
-        <v>432</v>
-      </c>
-      <c r="DC5" s="6" t="s">
-        <v>436</v>
-      </c>
-      <c r="DD5" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="DE5" s="6" t="s">
-        <v>447</v>
-      </c>
-      <c r="DF5" s="6" t="s">
-        <v>444</v>
-      </c>
-      <c r="DG5" s="24" t="s">
-        <v>941</v>
-      </c>
       <c r="DH5" s="6" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="DI5" s="6" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="DJ5" s="6" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="DK5" s="6" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="DL5" s="6" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="DM5" s="6" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="DN5" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="DO5" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="DP5" s="6" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="DQ5" s="6" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="DR5" s="6" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="DS5" s="6" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="DT5" s="6" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="DU5" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="DV5" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="DW5" s="6" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="DX5" s="6" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="DY5" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="DZ5" s="6" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="EA5" s="6" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="EB5" s="6" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="EC5" s="6" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="ED5" s="6" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="EE5" s="6" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="EF5" s="6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="EG5" s="6" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="EH5" s="6" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="EI5" s="6" t="s">
-        <v>927</v>
+        <v>926</v>
       </c>
       <c r="EJ5" s="6" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="EK5" s="6" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="EL5" s="6" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="EM5" s="6" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="EN5" s="6" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="EO5" s="6" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="EP5" s="6" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="EQ5" s="6" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="ER5" s="6" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="ES5" s="6" t="s">
-        <v>874</v>
+        <v>873</v>
       </c>
       <c r="ET5" s="6" t="s">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="EU5" s="6" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="EV5" s="6" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="EW5" s="6" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="EX5" s="6" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="EY5" s="6" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="EZ5" s="6" t="s">
-        <v>883</v>
+        <v>882</v>
       </c>
       <c r="FA5" s="6" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="FB5" s="6" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="FC5" s="6" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="FD5" s="6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="FE5" s="6" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="FF5" s="6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="FG5" s="6" t="s">
+        <v>604</v>
+      </c>
+      <c r="FH5" s="6" t="s">
         <v>605</v>
       </c>
-      <c r="FH5" s="6" t="s">
-        <v>606</v>
-      </c>
       <c r="FI5" s="6" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="FJ5" s="6" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="FK5" s="20" t="s">
-        <v>893</v>
+        <v>892</v>
       </c>
       <c r="FL5" s="6" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="6" spans="1:168" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="1"/>
       <c r="B6" s="13" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="C6" s="7"/>
       <c r="F6" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="H6" s="21" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="K6" s="6" t="s">
         <v>6</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="Q6" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="V6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="W6" s="11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="X6" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="Z6" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="AA6" s="6" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="AD6" s="6" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="AE6" s="6" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="AG6" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="AJ6" s="6" t="s">
         <v>8</v>
       </c>
       <c r="AL6" s="6" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="AO6" s="6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="AT6" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="AU6" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="AV6" s="6" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="AW6" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="AY6" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="BC6" s="6" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="BG6" s="6" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="BH6" s="6" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="BI6" s="24" t="s">
         <v>100</v>
       </c>
       <c r="BK6" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="BL6" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="BL6" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="BM6" s="6" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="BN6" s="6" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="BO6" s="6" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="BP6" s="6" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="BR6" s="6" t="s">
         <v>9</v>
       </c>
       <c r="BU6" s="6" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="BY6" s="6" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="CH6" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="CM6" s="6" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="CN6" s="6" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="CS6" s="6" t="s">
         <v>133</v>
       </c>
       <c r="CT6" s="24" t="s">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="CU6" s="8"/>
       <c r="CW6" s="6" t="s">
         <v>101</v>
       </c>
       <c r="CZ6" s="6" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="DA6" s="6" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="DB6" s="6" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="DD6" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="DF6" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="DG6" s="24" t="s">
-        <v>968</v>
+        <v>967</v>
       </c>
       <c r="DH6" s="6" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="DL6" s="6" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="DO6" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="DP6" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="DQ6" s="6" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="DV6" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="DW6" s="6" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="DY6" s="6" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="EF6" s="6" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="EG6" s="6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="EL6" s="6" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="EN6" s="6" t="s">
         <v>42</v>
       </c>
       <c r="EO6" s="6" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="EQ6" s="6" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="EU6" s="6" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="EV6" s="6" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="EY6" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="FB6" s="6" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="FC6" s="6" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="FD6" s="6" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="FF6" s="6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
     </row>
     <row r="7" spans="1:168" ht="17" x14ac:dyDescent="0.2">
       <c r="A7" s="10" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="C7" s="10"/>
     </row>
@@ -6358,516 +6358,516 @@
         <v>94</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C8" s="8" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="G8" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="H8" s="20" t="s">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="I8" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="J8" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="M8" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="N8" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="O8" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="P8" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Q8" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="R8" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="S8" s="20" t="s">
+        <v>941</v>
+      </c>
+      <c r="T8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="U8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="V8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="W8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="X8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="Z8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="AA8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AB8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="AC8" s="20" t="s">
         <v>942</v>
       </c>
-      <c r="T8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="U8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="V8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="W8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="X8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="Y8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="Z8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="AA8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AB8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="AC8" s="20" t="s">
+      <c r="AD8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AE8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="AF8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="AG8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AH8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="AI8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AJ8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="AK8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AL8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="AM8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="AN8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AO8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="AP8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="AQ8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="AR8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AS8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="AT8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AU8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AV8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AW8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AX8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="AY8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="AZ8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="BA8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="BB8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="BC8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="BD8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="BE8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="BF8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="BG8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="BH8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="BI8" s="24" t="s">
         <v>943</v>
       </c>
-      <c r="AD8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AE8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="AF8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="AG8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AH8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="AI8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AJ8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="AK8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AL8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="AM8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="AN8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AO8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="AP8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="AQ8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="AR8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AS8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="AT8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AU8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AV8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AW8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AX8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="AY8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="AZ8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="BA8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="BB8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="BC8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="BD8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="BE8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="BF8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="BG8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="BH8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="BI8" s="24" t="s">
+      <c r="BJ8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="BK8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="BL8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="BM8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="BN8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="BO8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="BP8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="BQ8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="BR8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="BS8" s="20" t="s">
         <v>944</v>
       </c>
-      <c r="BJ8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="BK8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="BL8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="BM8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="BN8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="BO8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="BP8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="BQ8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="BR8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="BS8" s="20" t="s">
+      <c r="BT8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="BU8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="BV8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="BW8" s="20" t="s">
         <v>945</v>
       </c>
-      <c r="BT8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="BU8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="BV8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="BW8" s="20" t="s">
+      <c r="BX8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="BY8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="BZ8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CA8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CB8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="CC8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CD8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="CE8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="CF8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="CG8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="CH8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CI8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="CJ8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="CK8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="CL8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="CM8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CN8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CO8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CP8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CQ8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CR8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CS8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CT8" s="24" t="s">
+        <v>928</v>
+      </c>
+      <c r="CU8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CV8" s="20" t="s">
         <v>946</v>
       </c>
-      <c r="BX8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="BY8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="BZ8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CA8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CB8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="CC8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CD8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="CE8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="CF8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="CG8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="CH8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CI8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="CJ8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="CK8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="CL8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="CM8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CN8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CO8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CP8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CQ8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CR8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CS8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CT8" s="24" t="s">
-        <v>929</v>
-      </c>
-      <c r="CU8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CV8" s="20" t="s">
+      <c r="CW8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="CX8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="CY8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="CZ8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="DA8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="DB8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="DC8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="DD8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="DE8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="DF8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="DG8" s="24" t="s">
+        <v>661</v>
+      </c>
+      <c r="DH8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="DI8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="DJ8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="DK8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="DL8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="DM8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="DN8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="DO8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="DP8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="DQ8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="DR8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="DS8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="DT8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="DU8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="DV8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="DW8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="DX8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="DY8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="DZ8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="EA8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="EB8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="EC8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="ED8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="EE8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="EF8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="EG8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="EH8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="EI8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="EJ8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="EK8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="EL8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="EM8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="EN8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="EO8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="EP8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="EQ8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="ER8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="ES8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="ET8" s="6" t="s">
+        <v>667</v>
+      </c>
+      <c r="EU8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="EV8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="EW8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="EX8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="EY8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="EZ8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="FA8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="FB8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="FC8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="FD8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="FE8" s="6" t="s">
+        <v>651</v>
+      </c>
+      <c r="FF8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="FG8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="FH8" s="6" t="s">
+        <v>686</v>
+      </c>
+      <c r="FI8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="FJ8" s="6" t="s">
+        <v>655</v>
+      </c>
+      <c r="FK8" s="20" t="s">
         <v>947</v>
       </c>
-      <c r="CW8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="CX8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="CY8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="CZ8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="DA8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="DB8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="DC8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="DD8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="DE8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="DF8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="DG8" s="24" t="s">
-        <v>662</v>
-      </c>
-      <c r="DH8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="DI8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="DJ8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="DK8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="DL8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="DM8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="DN8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="DO8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="DP8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="DQ8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="DR8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="DS8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="DT8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="DU8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="DV8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="DW8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="DX8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="DY8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="DZ8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="EA8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="EB8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="EC8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="ED8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="EE8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="EF8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="EG8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="EH8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="EI8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="EJ8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="EK8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="EL8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="EM8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="EN8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="EO8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="EP8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="EQ8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="ER8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="ES8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="ET8" s="6" t="s">
-        <v>668</v>
-      </c>
-      <c r="EU8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="EV8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="EW8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="EX8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="EY8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="EZ8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="FA8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="FB8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="FC8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="FD8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="FE8" s="6" t="s">
-        <v>652</v>
-      </c>
-      <c r="FF8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="FG8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="FH8" s="6" t="s">
-        <v>687</v>
-      </c>
-      <c r="FI8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="FJ8" s="6" t="s">
-        <v>656</v>
-      </c>
-      <c r="FK8" s="20" t="s">
-        <v>948</v>
-      </c>
       <c r="FL8" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="9" spans="1:168" x14ac:dyDescent="0.15">
       <c r="A9" s="8" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="C9" s="8" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="10" spans="1:168" x14ac:dyDescent="0.15">
@@ -6875,10 +6875,10 @@
         <v>30</v>
       </c>
       <c r="B10" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="D10" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="11" spans="1:168" x14ac:dyDescent="0.15">
@@ -6886,10 +6886,10 @@
         <v>34</v>
       </c>
       <c r="B11" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="E11" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="12" spans="1:168" x14ac:dyDescent="0.15">
@@ -6897,10 +6897,10 @@
         <v>75</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="13" spans="1:168" x14ac:dyDescent="0.15">
@@ -6908,13 +6908,13 @@
         <v>117</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="G13" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="EU13" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="14" spans="1:168" x14ac:dyDescent="0.15">
@@ -6922,21 +6922,21 @@
         <v>57</v>
       </c>
       <c r="B14" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>920</v>
+        <v>919</v>
       </c>
     </row>
     <row r="15" spans="1:168" x14ac:dyDescent="0.15">
       <c r="A15" s="6" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="B15" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I15" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="16" spans="1:168" x14ac:dyDescent="0.15">
@@ -6944,10 +6944,10 @@
         <v>119</v>
       </c>
       <c r="B16" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="J16" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="17" spans="1:140" x14ac:dyDescent="0.15">
@@ -6955,10 +6955,10 @@
         <v>120</v>
       </c>
       <c r="B17" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="K17" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="18" spans="1:140" x14ac:dyDescent="0.15">
@@ -6966,10 +6966,10 @@
         <v>124</v>
       </c>
       <c r="B18" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="19" spans="1:140" x14ac:dyDescent="0.15">
@@ -6977,21 +6977,21 @@
         <v>126</v>
       </c>
       <c r="B19" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="M19" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="20" spans="1:140" x14ac:dyDescent="0.15">
       <c r="A20" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B20" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="N20" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="21" spans="1:140" x14ac:dyDescent="0.15">
@@ -6999,10 +6999,10 @@
         <v>76</v>
       </c>
       <c r="B21" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="O21" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="22" spans="1:140" x14ac:dyDescent="0.15">
@@ -7010,10 +7010,10 @@
         <v>127</v>
       </c>
       <c r="B22" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="P22" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="23" spans="1:140" x14ac:dyDescent="0.15">
@@ -7021,10 +7021,10 @@
         <v>128</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Q23" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="24" spans="1:140" x14ac:dyDescent="0.15">
@@ -7032,21 +7032,21 @@
         <v>77</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="R24" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="25" spans="1:140" x14ac:dyDescent="0.15">
       <c r="A25" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="S25" s="20" t="s">
-        <v>949</v>
+        <v>948</v>
       </c>
     </row>
     <row r="26" spans="1:140" x14ac:dyDescent="0.15">
@@ -7054,10 +7054,10 @@
         <v>78</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="T26" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="27" spans="1:140" x14ac:dyDescent="0.15">
@@ -7065,10 +7065,10 @@
         <v>129</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="T27" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="28" spans="1:140" x14ac:dyDescent="0.15">
@@ -7076,10 +7076,10 @@
         <v>79</v>
       </c>
       <c r="B28" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="U28" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="29" spans="1:140" x14ac:dyDescent="0.15">
@@ -7087,10 +7087,10 @@
         <v>130</v>
       </c>
       <c r="B29" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="V29" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="30" spans="1:140" x14ac:dyDescent="0.15">
@@ -7098,13 +7098,13 @@
         <v>80</v>
       </c>
       <c r="B30" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="V30" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="CN30" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="31" spans="1:140" x14ac:dyDescent="0.15">
@@ -7112,30 +7112,30 @@
         <v>43</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="V31" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AJ31" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="32" spans="1:140" x14ac:dyDescent="0.15">
       <c r="A32" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B32" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="V32" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AJ32" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="EJ32" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="33" spans="1:92" x14ac:dyDescent="0.15">
@@ -7143,10 +7143,10 @@
         <v>81</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="W33" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="34" spans="1:92" x14ac:dyDescent="0.15">
@@ -7154,21 +7154,21 @@
         <v>131</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X34" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="35" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A35" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B35" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="Y35" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="36" spans="1:92" x14ac:dyDescent="0.15">
@@ -7176,10 +7176,10 @@
         <v>132</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="Z36" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="37" spans="1:92" x14ac:dyDescent="0.15">
@@ -7187,10 +7187,10 @@
         <v>27</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AA37" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="38" spans="1:92" x14ac:dyDescent="0.15">
@@ -7198,10 +7198,10 @@
         <v>28</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AB38" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="39" spans="1:92" x14ac:dyDescent="0.15">
@@ -7209,24 +7209,24 @@
         <v>10</v>
       </c>
       <c r="B39" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AC39" s="20" t="s">
-        <v>950</v>
+        <v>949</v>
       </c>
     </row>
     <row r="40" spans="1:92" x14ac:dyDescent="0.15">
       <c r="A40" s="6" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AD40" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="AJ40" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="41" spans="1:92" x14ac:dyDescent="0.15">
@@ -7234,16 +7234,16 @@
         <v>11</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AE41" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="BH41" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="BK41" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="42" spans="1:92" x14ac:dyDescent="0.15">
@@ -7251,10 +7251,10 @@
         <v>29</v>
       </c>
       <c r="B42" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AF42" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="43" spans="1:92" x14ac:dyDescent="0.15">
@@ -7262,10 +7262,10 @@
         <v>96</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AG43" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="44" spans="1:92" x14ac:dyDescent="0.15">
@@ -7273,10 +7273,10 @@
         <v>82</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AH44" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="45" spans="1:92" x14ac:dyDescent="0.15">
@@ -7284,19 +7284,19 @@
         <v>83</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AI45" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AK45" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="AL45" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="AM45" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="46" spans="1:92" x14ac:dyDescent="0.15">
@@ -7304,13 +7304,13 @@
         <v>84</v>
       </c>
       <c r="B46" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AJ46" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="AS46" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="47" spans="1:92" x14ac:dyDescent="0.15">
@@ -7318,13 +7318,13 @@
         <v>85</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AJ47" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="BG47" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="48" spans="1:92" x14ac:dyDescent="0.15">
@@ -7332,13 +7332,13 @@
         <v>86</v>
       </c>
       <c r="B48" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AJ48" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="CN48" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="49" spans="1:120" x14ac:dyDescent="0.15">
@@ -7346,13 +7346,13 @@
         <v>31</v>
       </c>
       <c r="B49" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AJ49" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="BR49" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="50" spans="1:120" x14ac:dyDescent="0.15">
@@ -7360,13 +7360,13 @@
         <v>102</v>
       </c>
       <c r="B50" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AJ50" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="CT50" s="24" t="s">
-        <v>951</v>
+        <v>950</v>
       </c>
     </row>
     <row r="51" spans="1:120" x14ac:dyDescent="0.15">
@@ -7374,10 +7374,10 @@
         <v>1</v>
       </c>
       <c r="B51" s="18" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="AJ51" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="52" spans="1:120" x14ac:dyDescent="0.15">
@@ -7385,13 +7385,13 @@
         <v>12</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AJ52" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="DP52" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="53" spans="1:120" x14ac:dyDescent="0.15">
@@ -7399,10 +7399,10 @@
         <v>87</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AL53" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="54" spans="1:120" x14ac:dyDescent="0.15">
@@ -7410,10 +7410,10 @@
         <v>32</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AL54" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="55" spans="1:120" x14ac:dyDescent="0.15">
@@ -7421,21 +7421,21 @@
         <v>33</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AN55" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="56" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A56" s="6" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AO56" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="57" spans="1:120" x14ac:dyDescent="0.15">
@@ -7443,10 +7443,10 @@
         <v>88</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AP57" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="58" spans="1:120" x14ac:dyDescent="0.15">
@@ -7454,10 +7454,10 @@
         <v>4</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AQ58" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="59" spans="1:120" x14ac:dyDescent="0.15">
@@ -7465,10 +7465,10 @@
         <v>89</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AR59" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="60" spans="1:120" x14ac:dyDescent="0.15">
@@ -7476,10 +7476,10 @@
         <v>35</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AT60" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="61" spans="1:120" x14ac:dyDescent="0.15">
@@ -7487,21 +7487,21 @@
         <v>90</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AU61" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="62" spans="1:120" x14ac:dyDescent="0.15">
       <c r="A62" s="6" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="AV62" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="63" spans="1:120" x14ac:dyDescent="0.15">
@@ -7509,10 +7509,10 @@
         <v>36</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="AW63" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="64" spans="1:120" x14ac:dyDescent="0.15">
@@ -7520,10 +7520,10 @@
         <v>13</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="AX64" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="65" spans="1:65" x14ac:dyDescent="0.15">
@@ -7531,10 +7531,10 @@
         <v>91</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AY65" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="66" spans="1:65" x14ac:dyDescent="0.15">
@@ -7542,10 +7542,10 @@
         <v>92</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="AZ66" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="67" spans="1:65" x14ac:dyDescent="0.15">
@@ -7553,10 +7553,10 @@
         <v>93</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BA67" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="68" spans="1:65" x14ac:dyDescent="0.15">
@@ -7564,10 +7564,10 @@
         <v>14</v>
       </c>
       <c r="B68" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BB68" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="69" spans="1:65" x14ac:dyDescent="0.15">
@@ -7575,10 +7575,10 @@
         <v>44</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BC69" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="70" spans="1:65" x14ac:dyDescent="0.15">
@@ -7586,10 +7586,10 @@
         <v>45</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BD70" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="71" spans="1:65" x14ac:dyDescent="0.15">
@@ -7597,10 +7597,10 @@
         <v>15</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BE71" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="72" spans="1:65" x14ac:dyDescent="0.15">
@@ -7608,10 +7608,10 @@
         <v>16</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BF72" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="73" spans="1:65" x14ac:dyDescent="0.15">
@@ -7619,10 +7619,10 @@
         <v>37</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="BG73" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="74" spans="1:65" x14ac:dyDescent="0.15">
@@ -7630,10 +7630,10 @@
         <v>17</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BI74" s="24" t="s">
-        <v>952</v>
+        <v>951</v>
       </c>
     </row>
     <row r="75" spans="1:65" x14ac:dyDescent="0.15">
@@ -7641,10 +7641,10 @@
         <v>46</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BI75" s="24" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
     </row>
     <row r="76" spans="1:65" x14ac:dyDescent="0.15">
@@ -7652,10 +7652,10 @@
         <v>18</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BJ76" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="77" spans="1:65" x14ac:dyDescent="0.15">
@@ -7663,10 +7663,10 @@
         <v>47</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BK77" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="78" spans="1:65" x14ac:dyDescent="0.15">
@@ -7674,10 +7674,10 @@
         <v>19</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BL78" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="79" spans="1:65" x14ac:dyDescent="0.15">
@@ -7685,21 +7685,21 @@
         <v>48</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BL79" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="80" spans="1:65" x14ac:dyDescent="0.15">
       <c r="A80" s="6" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="B80" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="BM80" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="81" spans="1:105" x14ac:dyDescent="0.15">
@@ -7707,10 +7707,10 @@
         <v>38</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="BN81" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="82" spans="1:105" x14ac:dyDescent="0.15">
@@ -7718,10 +7718,10 @@
         <v>20</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BO82" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="83" spans="1:105" x14ac:dyDescent="0.15">
@@ -7729,13 +7729,13 @@
         <v>21</v>
       </c>
       <c r="B83" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BO83" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="DA83" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="84" spans="1:105" x14ac:dyDescent="0.15">
@@ -7743,10 +7743,10 @@
         <v>22</v>
       </c>
       <c r="B84" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BP84" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="85" spans="1:105" x14ac:dyDescent="0.15">
@@ -7754,10 +7754,10 @@
         <v>49</v>
       </c>
       <c r="B85" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BQ85" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="86" spans="1:105" x14ac:dyDescent="0.15">
@@ -7765,10 +7765,10 @@
         <v>39</v>
       </c>
       <c r="B86" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="BR86" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="87" spans="1:105" x14ac:dyDescent="0.15">
@@ -7776,10 +7776,10 @@
         <v>23</v>
       </c>
       <c r="B87" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BS87" s="20" t="s">
-        <v>954</v>
+        <v>953</v>
       </c>
     </row>
     <row r="88" spans="1:105" x14ac:dyDescent="0.15">
@@ -7787,10 +7787,10 @@
         <v>24</v>
       </c>
       <c r="B88" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BT88" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="89" spans="1:105" x14ac:dyDescent="0.15">
@@ -7798,10 +7798,10 @@
         <v>40</v>
       </c>
       <c r="B89" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="BU89" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="90" spans="1:105" x14ac:dyDescent="0.15">
@@ -7809,10 +7809,10 @@
         <v>25</v>
       </c>
       <c r="B90" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BV90" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="91" spans="1:105" x14ac:dyDescent="0.15">
@@ -7820,10 +7820,10 @@
         <v>26</v>
       </c>
       <c r="B91" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BW91" s="20" t="s">
-        <v>955</v>
+        <v>954</v>
       </c>
     </row>
     <row r="92" spans="1:105" x14ac:dyDescent="0.15">
@@ -7831,10 +7831,10 @@
         <v>103</v>
       </c>
       <c r="B92" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BX92" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="93" spans="1:105" x14ac:dyDescent="0.15">
@@ -7842,10 +7842,10 @@
         <v>104</v>
       </c>
       <c r="B93" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="BY93" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="94" spans="1:105" x14ac:dyDescent="0.15">
@@ -7853,10 +7853,10 @@
         <v>50</v>
       </c>
       <c r="B94" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="BZ94" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="95" spans="1:105" x14ac:dyDescent="0.15">
@@ -7864,10 +7864,10 @@
         <v>105</v>
       </c>
       <c r="B95" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CA95" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="96" spans="1:105" x14ac:dyDescent="0.15">
@@ -7875,10 +7875,10 @@
         <v>106</v>
       </c>
       <c r="B96" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CB96" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="97" spans="1:94" x14ac:dyDescent="0.15">
@@ -7886,10 +7886,10 @@
         <v>107</v>
       </c>
       <c r="B97" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CC97" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="98" spans="1:94" x14ac:dyDescent="0.15">
@@ -7897,10 +7897,10 @@
         <v>108</v>
       </c>
       <c r="B98" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CD98" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="99" spans="1:94" x14ac:dyDescent="0.15">
@@ -7908,10 +7908,10 @@
         <v>109</v>
       </c>
       <c r="B99" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CE99" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="100" spans="1:94" x14ac:dyDescent="0.15">
@@ -7919,10 +7919,10 @@
         <v>110</v>
       </c>
       <c r="B100" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CF100" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="101" spans="1:94" x14ac:dyDescent="0.15">
@@ -7930,10 +7930,10 @@
         <v>51</v>
       </c>
       <c r="B101" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CG101" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="102" spans="1:94" x14ac:dyDescent="0.15">
@@ -7941,10 +7941,10 @@
         <v>52</v>
       </c>
       <c r="B102" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CG102" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="103" spans="1:94" x14ac:dyDescent="0.15">
@@ -7952,10 +7952,10 @@
         <v>71</v>
       </c>
       <c r="B103" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="CH103" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="104" spans="1:94" x14ac:dyDescent="0.15">
@@ -7963,10 +7963,10 @@
         <v>72</v>
       </c>
       <c r="B104" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="CH104" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="105" spans="1:94" x14ac:dyDescent="0.15">
@@ -7974,21 +7974,21 @@
         <v>53</v>
       </c>
       <c r="B105" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CI105" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="106" spans="1:94" x14ac:dyDescent="0.15">
       <c r="A106" s="6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="B106" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="CJ106" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="107" spans="1:94" x14ac:dyDescent="0.15">
@@ -7996,10 +7996,10 @@
         <v>111</v>
       </c>
       <c r="B107" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CK107" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="108" spans="1:94" x14ac:dyDescent="0.15">
@@ -8007,10 +8007,10 @@
         <v>54</v>
       </c>
       <c r="B108" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CL108" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="109" spans="1:94" x14ac:dyDescent="0.15">
@@ -8018,21 +8018,21 @@
         <v>73</v>
       </c>
       <c r="B109" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="CM109" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="110" spans="1:94" x14ac:dyDescent="0.15">
       <c r="A110" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B110" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CN110" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="111" spans="1:94" x14ac:dyDescent="0.15">
@@ -8040,21 +8040,21 @@
         <v>112</v>
       </c>
       <c r="B111" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CO111" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="112" spans="1:94" x14ac:dyDescent="0.15">
       <c r="A112" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B112" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CP112" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="113" spans="1:108" x14ac:dyDescent="0.15">
@@ -8062,21 +8062,21 @@
         <v>113</v>
       </c>
       <c r="B113" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CQ113" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="114" spans="1:108" x14ac:dyDescent="0.15">
       <c r="A114" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B114" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CR114" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="115" spans="1:108" x14ac:dyDescent="0.15">
@@ -8084,10 +8084,10 @@
         <v>74</v>
       </c>
       <c r="B115" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="CS115" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="116" spans="1:108" x14ac:dyDescent="0.15">
@@ -8095,10 +8095,10 @@
         <v>114</v>
       </c>
       <c r="B116" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CT116" s="24" t="s">
-        <v>930</v>
+        <v>929</v>
       </c>
     </row>
     <row r="117" spans="1:108" x14ac:dyDescent="0.15">
@@ -8106,10 +8106,10 @@
         <v>115</v>
       </c>
       <c r="B117" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CT117" s="24" t="s">
-        <v>956</v>
+        <v>955</v>
       </c>
     </row>
     <row r="118" spans="1:108" x14ac:dyDescent="0.15">
@@ -8117,10 +8117,10 @@
         <v>116</v>
       </c>
       <c r="B118" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CT118" s="24" t="s">
-        <v>957</v>
+        <v>956</v>
       </c>
     </row>
     <row r="119" spans="1:108" x14ac:dyDescent="0.15">
@@ -8128,10 +8128,10 @@
         <v>3</v>
       </c>
       <c r="B119" s="12" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="CT119" s="24" t="s">
-        <v>958</v>
+        <v>957</v>
       </c>
     </row>
     <row r="120" spans="1:108" x14ac:dyDescent="0.15">
@@ -8139,10 +8139,10 @@
         <v>5</v>
       </c>
       <c r="B120" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="CU120" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="121" spans="1:108" x14ac:dyDescent="0.15">
@@ -8150,32 +8150,32 @@
         <v>55</v>
       </c>
       <c r="B121" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CV121" s="20" t="s">
-        <v>959</v>
+        <v>958</v>
       </c>
     </row>
     <row r="122" spans="1:108" x14ac:dyDescent="0.15">
       <c r="A122" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="B122" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CW122" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="123" spans="1:108" x14ac:dyDescent="0.15">
       <c r="A123" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B123" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="CX123" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="124" spans="1:108" x14ac:dyDescent="0.15">
@@ -8183,10 +8183,10 @@
         <v>56</v>
       </c>
       <c r="B124" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="CY124" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="125" spans="1:108" x14ac:dyDescent="0.15">
@@ -8194,10 +8194,10 @@
         <v>118</v>
       </c>
       <c r="B125" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="CZ125" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="126" spans="1:108" x14ac:dyDescent="0.15">
@@ -8205,32 +8205,32 @@
         <v>95</v>
       </c>
       <c r="B126" s="12" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="DB126" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="127" spans="1:108" x14ac:dyDescent="0.15">
       <c r="A127" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B127" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DC127" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="128" spans="1:108" x14ac:dyDescent="0.15">
       <c r="A128" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B128" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DD128" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="129" spans="1:121" x14ac:dyDescent="0.15">
@@ -8238,10 +8238,10 @@
         <v>58</v>
       </c>
       <c r="B129" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DE129" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="130" spans="1:121" x14ac:dyDescent="0.15">
@@ -8249,10 +8249,10 @@
         <v>59</v>
       </c>
       <c r="B130" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DF130" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="131" spans="1:121" x14ac:dyDescent="0.15">
@@ -8260,7 +8260,7 @@
         <v>60</v>
       </c>
       <c r="B131" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DG131" s="24" t="s">
         <v>0</v>
@@ -8271,10 +8271,10 @@
         <v>61</v>
       </c>
       <c r="B132" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DG132" s="24" t="s">
-        <v>960</v>
+        <v>959</v>
       </c>
     </row>
     <row r="133" spans="1:121" x14ac:dyDescent="0.15">
@@ -8282,10 +8282,10 @@
         <v>62</v>
       </c>
       <c r="B133" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DG133" s="24" t="s">
-        <v>961</v>
+        <v>960</v>
       </c>
     </row>
     <row r="134" spans="1:121" x14ac:dyDescent="0.15">
@@ -8293,10 +8293,10 @@
         <v>63</v>
       </c>
       <c r="B134" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DG134" s="24" t="s">
-        <v>962</v>
+        <v>961</v>
       </c>
     </row>
     <row r="135" spans="1:121" x14ac:dyDescent="0.15">
@@ -8304,10 +8304,10 @@
         <v>64</v>
       </c>
       <c r="B135" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DH135" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="136" spans="1:121" x14ac:dyDescent="0.15">
@@ -8315,10 +8315,10 @@
         <v>65</v>
       </c>
       <c r="B136" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DI136" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="137" spans="1:121" x14ac:dyDescent="0.15">
@@ -8326,10 +8326,10 @@
         <v>66</v>
       </c>
       <c r="B137" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DJ137" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="138" spans="1:121" x14ac:dyDescent="0.15">
@@ -8337,10 +8337,10 @@
         <v>67</v>
       </c>
       <c r="B138" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DK138" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="139" spans="1:121" x14ac:dyDescent="0.15">
@@ -8348,10 +8348,10 @@
         <v>68</v>
       </c>
       <c r="B139" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DL139" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="140" spans="1:121" x14ac:dyDescent="0.15">
@@ -8359,10 +8359,10 @@
         <v>69</v>
       </c>
       <c r="B140" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DM140" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="141" spans="1:121" x14ac:dyDescent="0.15">
@@ -8370,10 +8370,10 @@
         <v>70</v>
       </c>
       <c r="B141" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DN141" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="142" spans="1:121" x14ac:dyDescent="0.15">
@@ -8381,10 +8381,10 @@
         <v>134</v>
       </c>
       <c r="B142" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DO142" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="143" spans="1:121" x14ac:dyDescent="0.15">
@@ -8392,10 +8392,10 @@
         <v>135</v>
       </c>
       <c r="B143" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DP143" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="144" spans="1:121" x14ac:dyDescent="0.15">
@@ -8403,10 +8403,10 @@
         <v>136</v>
       </c>
       <c r="B144" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DQ144" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="145" spans="1:137" x14ac:dyDescent="0.15">
@@ -8414,10 +8414,10 @@
         <v>137</v>
       </c>
       <c r="B145" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DR145" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="146" spans="1:137" x14ac:dyDescent="0.15">
@@ -8425,10 +8425,10 @@
         <v>138</v>
       </c>
       <c r="B146" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DS146" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="147" spans="1:137" x14ac:dyDescent="0.15">
@@ -8436,10 +8436,10 @@
         <v>139</v>
       </c>
       <c r="B147" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DT147" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="148" spans="1:137" x14ac:dyDescent="0.15">
@@ -8447,10 +8447,10 @@
         <v>140</v>
       </c>
       <c r="B148" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DU148" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="149" spans="1:137" x14ac:dyDescent="0.15">
@@ -8458,10 +8458,10 @@
         <v>141</v>
       </c>
       <c r="B149" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DV149" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="150" spans="1:137" x14ac:dyDescent="0.15">
@@ -8469,10 +8469,10 @@
         <v>142</v>
       </c>
       <c r="B150" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DW150" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="151" spans="1:137" x14ac:dyDescent="0.15">
@@ -8480,10 +8480,10 @@
         <v>143</v>
       </c>
       <c r="B151" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DX151" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="152" spans="1:137" x14ac:dyDescent="0.15">
@@ -8491,21 +8491,21 @@
         <v>144</v>
       </c>
       <c r="B152" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="DY152" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="153" spans="1:137" x14ac:dyDescent="0.15">
       <c r="A153" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B153" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="DZ153" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="154" spans="1:137" x14ac:dyDescent="0.15">
@@ -8513,10 +8513,10 @@
         <v>145</v>
       </c>
       <c r="B154" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EA154" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="155" spans="1:137" x14ac:dyDescent="0.15">
@@ -8524,21 +8524,21 @@
         <v>146</v>
       </c>
       <c r="B155" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EB155" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="156" spans="1:137" x14ac:dyDescent="0.15">
       <c r="A156" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B156" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EC156" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="157" spans="1:137" x14ac:dyDescent="0.15">
@@ -8546,10 +8546,10 @@
         <v>147</v>
       </c>
       <c r="B157" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="ED157" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="158" spans="1:137" x14ac:dyDescent="0.15">
@@ -8557,10 +8557,10 @@
         <v>148</v>
       </c>
       <c r="B158" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EE158" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="159" spans="1:137" x14ac:dyDescent="0.15">
@@ -8568,10 +8568,10 @@
         <v>149</v>
       </c>
       <c r="B159" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EF159" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="160" spans="1:137" x14ac:dyDescent="0.15">
@@ -8579,10 +8579,10 @@
         <v>150</v>
       </c>
       <c r="B160" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EG160" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="161" spans="1:152" x14ac:dyDescent="0.15">
@@ -8590,10 +8590,10 @@
         <v>151</v>
       </c>
       <c r="B161" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EG161" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="162" spans="1:152" x14ac:dyDescent="0.15">
@@ -8601,10 +8601,10 @@
         <v>152</v>
       </c>
       <c r="B162" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EH162" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="163" spans="1:152" x14ac:dyDescent="0.15">
@@ -8612,10 +8612,10 @@
         <v>2</v>
       </c>
       <c r="B163" s="12" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="EI163" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="164" spans="1:152" x14ac:dyDescent="0.15">
@@ -8623,21 +8623,21 @@
         <v>153</v>
       </c>
       <c r="B164" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EK164" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="165" spans="1:152" x14ac:dyDescent="0.15">
       <c r="A165" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B165" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EL165" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="166" spans="1:152" x14ac:dyDescent="0.15">
@@ -8645,10 +8645,10 @@
         <v>154</v>
       </c>
       <c r="B166" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EM166" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="167" spans="1:152" ht="16" x14ac:dyDescent="0.2">
@@ -8656,162 +8656,162 @@
         <v>41</v>
       </c>
       <c r="B167" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="BI167" s="24" t="s">
-        <v>953</v>
+        <v>952</v>
       </c>
       <c r="EN167" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="168" spans="1:152" x14ac:dyDescent="0.15">
       <c r="A168" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B168" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EO168" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="169" spans="1:152" x14ac:dyDescent="0.15">
       <c r="A169" s="6" t="s">
-        <v>155</v>
+        <v>971</v>
       </c>
       <c r="B169" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EP169" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="170" spans="1:152" x14ac:dyDescent="0.15">
       <c r="A170" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B170" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EQ170" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="171" spans="1:152" x14ac:dyDescent="0.15">
       <c r="A171" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B171" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="ER171" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="172" spans="1:152" x14ac:dyDescent="0.15">
       <c r="A172" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B172" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="ES172" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="173" spans="1:152" x14ac:dyDescent="0.15">
       <c r="A173" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B173" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="ES173" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="EU173" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="174" spans="1:152" x14ac:dyDescent="0.15">
       <c r="A174" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B174" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="ET174" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="175" spans="1:152" x14ac:dyDescent="0.15">
       <c r="A175" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B175" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EU175" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="176" spans="1:152" x14ac:dyDescent="0.15">
       <c r="A176" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B176" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EV176" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="177" spans="1:168" x14ac:dyDescent="0.15">
       <c r="A177" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B177" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EW177" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="178" spans="1:168" x14ac:dyDescent="0.15">
       <c r="A178" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B178" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EX178" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="179" spans="1:168" x14ac:dyDescent="0.15">
       <c r="A179" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B179" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="EY179" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="FL179" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="180" spans="1:168" x14ac:dyDescent="0.15">
       <c r="A180" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B180" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EY180" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="181" spans="1:168" x14ac:dyDescent="0.15">
@@ -8819,10 +8819,10 @@
         <v>97</v>
       </c>
       <c r="B181" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="EY181" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="182" spans="1:168" x14ac:dyDescent="0.15">
@@ -8830,10 +8830,10 @@
         <v>121</v>
       </c>
       <c r="B182" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="EZ182" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="183" spans="1:168" x14ac:dyDescent="0.15">
@@ -8841,10 +8841,10 @@
         <v>122</v>
       </c>
       <c r="B183" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="FA183" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="184" spans="1:168" x14ac:dyDescent="0.15">
@@ -8852,21 +8852,21 @@
         <v>98</v>
       </c>
       <c r="B184" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="FA184" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="185" spans="1:168" x14ac:dyDescent="0.15">
       <c r="A185" s="6" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B185" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="FB185" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="186" spans="1:168" x14ac:dyDescent="0.15">
@@ -8874,10 +8874,10 @@
         <v>99</v>
       </c>
       <c r="B186" s="12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="FC186" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="187" spans="1:168" x14ac:dyDescent="0.15">
@@ -8885,21 +8885,21 @@
         <v>123</v>
       </c>
       <c r="B187" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="FD187" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="188" spans="1:168" x14ac:dyDescent="0.15">
       <c r="A188" s="6" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="B188" s="12" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="FE188" s="6" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="189" spans="1:168" x14ac:dyDescent="0.15">
@@ -8907,88 +8907,88 @@
         <v>125</v>
       </c>
       <c r="B189" s="12" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="FF189" s="6" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
     </row>
     <row r="190" spans="1:168" x14ac:dyDescent="0.15">
       <c r="A190" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B190" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="FG190" s="6" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
     </row>
     <row r="191" spans="1:168" x14ac:dyDescent="0.15">
       <c r="A191" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B191" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="FH191" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="192" spans="1:168" x14ac:dyDescent="0.15">
       <c r="A192" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B192" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="FI192" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="193" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A193" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B193" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="FJ193" s="6" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="194" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A194" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B194" s="12" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="FK194" s="20" t="s">
-        <v>963</v>
+        <v>962</v>
       </c>
     </row>
     <row r="195" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A195" s="6" t="s">
+        <v>930</v>
+      </c>
+      <c r="B195" s="12" t="s">
         <v>931</v>
-      </c>
-      <c r="B195" s="12" t="s">
-        <v>932</v>
       </c>
     </row>
     <row r="197" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A197" s="6" t="s">
-        <v>913</v>
+        <v>912</v>
       </c>
     </row>
     <row r="198" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A198" s="8" t="s">
-        <v>935</v>
+        <v>934</v>
       </c>
     </row>
     <row r="199" spans="1:167" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A199" s="14" t="s">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="H199" s="22"/>
       <c r="S199" s="22"/>
@@ -9003,7 +9003,7 @@
     </row>
     <row r="200" spans="1:167" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A200" s="14" t="s">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="H200" s="22"/>
       <c r="S200" s="22"/>
@@ -9018,7 +9018,7 @@
     </row>
     <row r="201" spans="1:167" s="15" customFormat="1" ht="16" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A201" s="14" t="s">
-        <v>933</v>
+        <v>932</v>
       </c>
       <c r="H201" s="22"/>
       <c r="S201" s="22"/>
@@ -9033,7 +9033,7 @@
     </row>
     <row r="202" spans="1:167" x14ac:dyDescent="0.15">
       <c r="A202" s="16" t="s">
-        <v>934</v>
+        <v>933</v>
       </c>
     </row>
   </sheetData>
